--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.328</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.353</v>
+        <v>20.551</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.157</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.589</v>
+        <v>18.646</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.975</v>
+        <v>18.069</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.35398939960918</v>
+        <v>-12.75405729046199</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.1666560498396</v>
+        <v>15.67385214010894</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.31816100321295</v>
+        <v>23.30495246285036</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.39827781038553</v>
+        <v>-8.133670494218315</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.65904411493533</v>
+        <v>9.570925615771124</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.49574283932334</v>
+        <v>15.81287110403084</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.57812901410462</v>
+        <v>3.784268658349013</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.94163805803164</v>
+        <v>17.418786713351</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.54119117955365</v>
+        <v>22.72643342462904</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.56986745832297</v>
+        <v>22.20870372644756</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.84578139771622</v>
+        <v>32.13221457420175</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.39617651151724</v>
+        <v>37.24776315538204</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.7263570328834</v>
+        <v>2.867528951093526</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.81179357649383</v>
+        <v>25.17740662725478</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.86795899981187</v>
+        <v>32.97071418649843</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.0648805189716</v>
+        <v>-8.194382146799036</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.10139553358738</v>
+        <v>20.23947450159815</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.05508587285129</v>
+        <v>27.87354325621848</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.17895012143707</v>
+        <v>-3.583393080327347</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.55862592148662</v>
+        <v>14.12681685258817</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.0015635352889</v>
+        <v>20.37151001696943</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.25811338393542</v>
+        <v>8.340994615171574</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.50761783653171</v>
+        <v>21.98109292697736</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.76845379432331</v>
+        <v>-3.266675270413977</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.11406819191584</v>
+        <v>25.16221185621784</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.79519402253191</v>
+        <v>32.79324503728585</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>22.54688763889774</v>
+        <v>1.355963111793493</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.49308081410317</v>
+        <v>19.06147816929913</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.67326746669099</v>
+        <v>25.30332334759932</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.91709895555501</v>
+        <v>13.27458107321743</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.51614892926754</v>
+        <v>26.90985213865454</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.27329229162297</v>
+        <v>32.21739771166633</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.50356953988295</v>
+        <v>31.70064856397826</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.67139270243105</v>
+        <v>41.62422769481</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.03899178780366</v>
+        <v>46.73973749385109</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.89068935122064</v>
+        <v>12.35846434006728</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.51345824026715</v>
+        <v>34.66941573029569</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.79959413703867</v>
+        <v>42.46260018452565</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.29893205710619</v>
+        <v>1.295807167740485</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.40445776379148</v>
+        <v>29.73064160240292</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.49997541713851</v>
+        <v>37.36464326110902</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.16653920113054</v>
+        <v>5.909048169557444</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.56545938848383</v>
+        <v>23.62017713597029</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.56301835884113</v>
+        <v>29.8647700302055</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.40515417586097</v>
+        <v>17.83411485640558</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.6685205442045</v>
+        <v>31.47496625781209</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.53222780263624</v>
+        <v>0.4943040331551387</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.5617544592938</v>
+        <v>28.92347161915861</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.97860759181177</v>
+        <v>36.55458322954612</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.28425880145949</v>
+        <v>5.118017654076787</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.30920564620003</v>
+        <v>22.82385331680168</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.9082403523002</v>
+        <v>29.06580258792021</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.65800548126179</v>
+        <v>17.03672505609122</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.06427852214202</v>
+        <v>30.67227706605674</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.4793036890833</v>
+        <v>35.97990301685675</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.23810490170898</v>
+        <v>35.46320897749606</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.33390857153604</v>
+        <v>45.38675424619159</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.44023584946364</v>
+        <v>50.50233919009397</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.07369447744543</v>
+        <v>16.12069737972026</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.60985715530749</v>
+        <v>38.43208244217103</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.40691000739817</v>
+        <v>46.22533013999284</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.44263258843979</v>
+        <v>5.057655587251155</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.04435412394939</v>
+        <v>33.49277048937861</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.87662678716212</v>
+        <v>41.1268505948216</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.25940732458</v>
+        <v>9.67197198160104</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.44888147294365</v>
+        <v>27.38342156282172</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.72510233102182</v>
+        <v>33.62811857104841</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.47304262303718</v>
+        <v>21.59712813131753</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.95183733298138</v>
+        <v>35.23826048470985</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.08726404313859</v>
+        <v>-7.352303521473551</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.84401364666163</v>
+        <v>21.07619952766927</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.00561620763515</v>
+        <v>28.7075579448614</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.84993610274374</v>
+        <v>-2.730022465380308</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.00540348313145</v>
+        <v>14.97519252891347</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.58214626376351</v>
+        <v>21.21745456377473</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.17395796205633</v>
+        <v>9.188015301341714</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.82694998916294</v>
+        <v>22.82307755152114</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.76256129928498</v>
+        <v>28.13097976013184</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.28308402710211</v>
+        <v>27.61314580943942</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.39916741183422</v>
+        <v>37.53663406442083</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.62802722160191</v>
+        <v>42.65240819337262</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.33267958404527</v>
+        <v>8.271342409201701</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.42007277680264</v>
+        <v>30.58209967408529</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.44719505900022</v>
+        <v>38.37564702389002</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.90296860561124</v>
+        <v>-2.791401935099294</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.94626438475161</v>
+        <v>25.64304836833198</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.28356649126536</v>
+        <v>33.27737526860746</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.22746828033845</v>
+        <v>1.821481575603933</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.22006397471069</v>
+        <v>19.5323104308085</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.37278327307851</v>
+        <v>25.77732020134899</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.29551946895601</v>
+        <v>13.74596793461105</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.83760952987288</v>
+        <v>27.38661047859173</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.16113207602359</v>
+        <v>27.29090657344945</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.36318394657476</v>
+        <v>26.77270551359234</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.11041738756746</v>
+        <v>36.70049138417803</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.13722803152881</v>
+        <v>41.81825265288821</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.04015981235619</v>
+        <v>7.428429793992471</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.97945773454234</v>
+        <v>29.74867430517863</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.76853259031682</v>
+        <v>37.54296719335448</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.82030729028696</v>
+        <v>1.573935504890891</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.92305041826338</v>
+        <v>30.00979936680871</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.72475475057834</v>
+        <v>37.64449911120087</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.34272657957644</v>
+        <v>6.192868579984427</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.58756713180802</v>
+        <v>23.90532869207973</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.48623433428511</v>
+        <v>30.15059641134123</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.80097831135211</v>
+        <v>18.11940946491372</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.29081131486133</v>
+        <v>31.76119604690361</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.47454649453304</v>
+        <v>37.07195573631738</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.33909997868358</v>
+        <v>36.55887993548256</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.14894946819557</v>
+        <v>46.48713812107658</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.20262246527557</v>
+        <v>51.60495258710719</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.19650529574788</v>
+        <v>17.21032465460998</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.40150489024599</v>
+        <v>39.53239023126209</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.95255033593817</v>
+        <v>47.32778118079946</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.15260209016251</v>
+        <v>36.78467880223197</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.28002957979621</v>
+        <v>36.26745822128853</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.60840793006941</v>
+        <v>46.19531236000082</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.71696403285755</v>
+        <v>51.31303487410289</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.35997333373759</v>
+        <v>16.92217298924438</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.6014475123263</v>
+        <v>39.24349134403237</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.76642125802424</v>
+        <v>47.03766116537295</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.58780560958855</v>
+        <v>11.06535485957411</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.6419438324743</v>
+        <v>39.50219652555202</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.06676571948162</v>
+        <v>47.13682912679828</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.56409677027175</v>
+        <v>15.68654000795666</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.83550872372086</v>
+        <v>33.39991916379201</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.04655856718768</v>
+        <v>39.64508657224612</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.60644739102349</v>
+        <v>27.61375995251446</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.41369406388926</v>
+        <v>41.25629964044744</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>37.9662665443553</v>
+        <v>46.56695819263759</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>34.51870917236516</v>
+        <v>46.05486291078537</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>39.70451509321949</v>
+        <v>55.98318937078195</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>42.05050362847911</v>
+        <v>61.10096506179925</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.21682953038296</v>
+        <v>26.70529809054769</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>37.23011097223746</v>
+        <v>49.02843750733827</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>37.70159497852694</v>
+        <v>56.82370536620831</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.03459244684079</v>
+        <v>40.54805342569946</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.15633228380539</v>
+        <v>40.03088784848457</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.16034244422629</v>
+        <v>49.95870809167857</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.75868862611892</v>
+        <v>55.07650576718256</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.92860198334832</v>
+        <v>20.68527528209361</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.83324145630942</v>
+        <v>43.0070273159446</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.19752752702304</v>
+        <v>50.80126040292216</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.58888289119062</v>
+        <v>14.82806626164884</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.60915729673429</v>
+        <v>43.26518839902737</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.2912500177856</v>
+        <v>50.89989942827437</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.33285793164833</v>
+        <v>19.45032685013816</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.23748746227087</v>
+        <v>37.16402662313228</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.34502676794391</v>
+        <v>43.40929813246512</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.4835524486243</v>
+        <v>31.37763628702523</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>34.27473429515643</v>
+        <v>45.02045693521929</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>39.8584314340718</v>
+        <v>50.33119586901162</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.80906230363028</v>
+        <v>49.81915558752203</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.49262780924891</v>
+        <v>59.74744815291515</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>43.27994263868774</v>
+        <v>64.86529899323082</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.62241496418621</v>
+        <v>30.46926340323173</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.25169132635985</v>
+        <v>52.79283648996456</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.3585097825</v>
+        <v>60.58816760769289</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.51029858666294</v>
+        <v>32.69667967245427</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.60129308810005</v>
+        <v>32.17837414257226</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.31710564918916</v>
+        <v>42.10613737768519</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.54066296603204</v>
+        <v>47.22412424134952</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.07589859191571</v>
+        <v>12.83346988066594</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.80471934067344</v>
+        <v>35.15459403963396</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.69329331240294</v>
+        <v>42.94912676513561</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.00113153080484</v>
+        <v>6.978633732478464</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.82490064629748</v>
+        <v>35.41509126959638</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.66596801961103</v>
+        <v>43.05004913309258</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.32866382120815</v>
+        <v>11.59946138491002</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.37599432767932</v>
+        <v>29.31254043942194</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.37281261691827</v>
+        <v>35.55812474891925</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.42830706641706</v>
+        <v>23.52610099976234</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.39362014504577</v>
+        <v>37.16843184109907</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.24758353969334</v>
+        <v>42.47944705911075</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.92850361119938</v>
+        <v>41.96626680867669</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.06758808474949</v>
+        <v>51.8945023639292</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>41.77410600550314</v>
+        <v>57.01254240250639</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.50810022551319</v>
+        <v>22.61708289322976</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>31.33819571186757</v>
+        <v>44.94002811141868</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>38.21135570953949</v>
+        <v>52.7356588970272</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.43371555333917</v>
+        <v>-15.37789000263761</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.43910862558223</v>
+        <v>13.04703250324931</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.7480415933326</v>
+        <v>20.67803866702334</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.13746677636043</v>
+        <v>-10.75866185392304</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.31943803018098</v>
+        <v>6.94371096934244</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.61853197440178</v>
+        <v>13.18575335011828</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.75671242053569</v>
+        <v>1.158032239101225</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>45.79062532391599</v>
+        <v>14.79075340169427</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.83587691454179</v>
+        <v>20.0984402146453</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.84511732030487</v>
+        <v>19.5804531986329</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.20422849318179</v>
+        <v>29.50294839072605</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.62771631524056</v>
+        <v>34.6185939263436</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.51553010716618</v>
+        <v>0.2421470323003163</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.00042241340731</v>
+        <v>22.54930801474747</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.425464223682</v>
+        <v>30.34263233593801</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.35059693165759</v>
+        <v>-10.82052517266934</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.44632958535038</v>
+        <v>17.61034403796329</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.58277486607882</v>
+        <v>25.24431858295534</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.63447497602606</v>
+        <v>-6.210694060122911</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.43090210881395</v>
+        <v>11.49729212598881</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.15950390559692</v>
+        <v>17.74208216483273</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.08353231553765</v>
+        <v>5.712447809865715</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.72126755251735</v>
+        <v>19.35074876735566</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.56871705340183</v>
+        <v>-5.890970858050288</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.08909004302696</v>
+        <v>22.53492926318668</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.41156870423998</v>
+        <v>30.16586830264387</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14.14860836228644</v>
+        <v>-1.269491318951147</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.09213454507211</v>
+        <v>16.43380037502529</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.14861577891405</v>
+        <v>22.67574246671463</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.12950135095769</v>
+        <v>10.64788155216561</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.96625612665895</v>
+        <v>24.28135566259029</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>48.72429065678459</v>
+        <v>29.58894135540108</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.75036982793612</v>
+        <v>29.07193479220145</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.10091116961097</v>
+        <v>38.99449826654133</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.02905211496544</v>
+        <v>44.1101050260394</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.11763571369655</v>
+        <v>9.73261926310547</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.62034475802487</v>
+        <v>32.04085386695228</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.53432364220341</v>
+        <v>39.83405510367029</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.010398976042</v>
+        <v>-1.330798976922189</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.90218091931709</v>
+        <v>27.10104793924258</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.93754609054003</v>
+        <v>34.734955405502</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.82115376006074</v>
+        <v>3.281283875634266</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.19620853346563</v>
+        <v>20.99018901832599</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.24033450278366</v>
+        <v>27.23487880767677</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.66465981093281</v>
+        <v>15.20510470598324</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.97922039711126</v>
+        <v>28.84415869060106</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.82229475770598</v>
+        <v>-2.130171634159389</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.83307262506058</v>
+        <v>26.2960089282823</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.90362856620582</v>
+        <v>33.92702639710708</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.54651082409853</v>
+        <v>2.492383058165068</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.88515173087571</v>
+        <v>20.19599533575617</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.76186800751438</v>
+        <v>26.4380415184095</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.57414726730765</v>
+        <v>14.4098453737487</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.2514358299339</v>
+        <v>28.04360041015436</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.09653203592987</v>
+        <v>33.35126648031055</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.32326958264599</v>
+        <v>32.83431500421263</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>57.33788278966512</v>
+        <v>42.75684462359302</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>61.53953458638679</v>
+        <v>47.87252652554528</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.88724820534632</v>
+        <v>13.49467212230197</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.16307100672693</v>
+        <v>35.80334036736647</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21.04612304283587</v>
+        <v>43.59660484930773</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.15018169476346</v>
+        <v>2.43086929749736</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.44684179176231</v>
+        <v>30.86299666276718</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.4292898514415</v>
+        <v>38.49698257613081</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>13.52328282311839</v>
+        <v>7.044027456947582</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.42873291316046</v>
+        <v>24.7532531928098</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.98026450631008</v>
+        <v>30.99804709415891</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.83604610176043</v>
+        <v>18.96793775372603</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.54460081767571</v>
+        <v>32.60727267208656</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.62851003559875</v>
+        <v>-9.976393334035926</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.73615828024224</v>
+        <v>18.44912274800279</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.51203052236185</v>
+        <v>26.08038700149441</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.10421182433199</v>
+        <v>-5.355271079519277</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>38.38824326806784</v>
+        <v>12.34772058301601</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>41.09828515491811</v>
+        <v>18.59007950139019</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.75666726675791</v>
+        <v>6.561521636752353</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>53.1503848708728</v>
+        <v>20.19478695519538</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.95628040862792</v>
+        <v>25.5027292595835</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>54.21656095998247</v>
+        <v>24.9846379636182</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.84741162363946</v>
+        <v>34.90711057220144</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>60.18475175069059</v>
+        <v>40.0229816489722</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.73976302880118</v>
+        <v>5.645703218747506</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>15.01651077870847</v>
+        <v>27.95374372396773</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.47440786330683</v>
+        <v>35.74730783366592</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>17.30595766735002</v>
+        <v>-5.417802161762644</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.2147434818161</v>
+        <v>23.01366066171285</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.83228761127854</v>
+        <v>30.6478933475079</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.65861439907839</v>
+        <v>-0.8060767586968964</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.36465031294684</v>
+        <v>16.90252830448517</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.72774391295518</v>
+        <v>23.14763494019441</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.72243772357477</v>
+        <v>11.11716378328415</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>44.04449385532973</v>
+        <v>24.75600893380865</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.06185776443691</v>
+        <v>24.66060251370268</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.43961740529434</v>
+        <v>24.14214415330209</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.34683809182905</v>
+        <v>34.06891408847402</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.12247842248983</v>
+        <v>39.18677230247251</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.21491917884129</v>
+        <v>4.800737254106274</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.68038484661234</v>
+        <v>27.11826434234663</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.00909538685365</v>
+        <v>34.91257406320008</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.08850086946336</v>
+        <v>-1.052777672588924</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.45790739154889</v>
+        <v>27.38009859881029</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.62945739164169</v>
+        <v>35.01470402856139</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.79037964649763</v>
+        <v>3.564996838566593</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.56944362823405</v>
+        <v>21.27523302479519</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.36055339868326</v>
+        <v>27.52059752359755</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.59973879115536</v>
+        <v>15.49029172288797</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.41706417253617</v>
+        <v>29.13028082786402</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.41745645087416</v>
+        <v>34.4410804710184</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.94253760246472</v>
+        <v>33.92774704855699</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.67945389739018</v>
+        <v>43.8549892275138</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>44.22904426869766</v>
+        <v>48.97290056335239</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.18066679743009</v>
+        <v>14.58206093996173</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.71809040182521</v>
+        <v>36.90140888536248</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.77501513938</v>
+        <v>44.69681657153264</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.1715249207282</v>
+        <v>34.15391135293148</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.46540689306066</v>
+        <v>33.63643337330839</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.99330510837665</v>
+        <v>43.56327157616729</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.61796339198669</v>
+        <v>48.6810910413599</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.73812322018912</v>
+        <v>14.29401704804356</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.49314700866918</v>
+        <v>36.61261788727611</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.96612152082336</v>
+        <v>44.40680456178168</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.0017322498341</v>
+        <v>8.438178502179106</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.20034654019504</v>
+        <v>36.87203249720132</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.34474496788586</v>
+        <v>44.50657080086139</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.45420098361432</v>
+        <v>13.0582048912793</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.83863305503475</v>
+        <v>30.76936004468782</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.88225299534463</v>
+        <v>37.01462425325123</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.64626144612921</v>
+        <v>24.98417880443585</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>47.44831311949649</v>
+        <v>38.62492095281961</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.99932220080473</v>
+        <v>43.93561947679645</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>51.42808174036252</v>
+        <v>43.4232664755797</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>56.85767813155559</v>
+        <v>53.35057692805267</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58.79213832180571</v>
+        <v>58.46844949467472</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.86270715754608</v>
+        <v>24.07657091345916</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>55.09585630031772</v>
+        <v>46.39699260636669</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.70820278156935</v>
+        <v>54.19227722245559</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.3634304096838</v>
+        <v>37.91710573036007</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>40.31321423145864</v>
+        <v>37.39968273394393</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.76841314430993</v>
+        <v>47.32648704826001</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.30802903762301</v>
+        <v>52.44438167233616</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.43105483486275</v>
+        <v>18.05693909456183</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>47.1057621413463</v>
+        <v>40.37597358197879</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.21623436247584</v>
+        <v>48.17022352365691</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.53327753712061</v>
+        <v>12.20070969289556</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.45660211089593</v>
+        <v>40.63484414128529</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.03500071132949</v>
+        <v>48.26946087306171</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.88973825988387</v>
+        <v>16.82181143669984</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.63805507225775</v>
+        <v>34.53328718567743</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.08099304220619</v>
+        <v>40.77865549333458</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.22884980600882</v>
+        <v>28.74787484619289</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>49.13248671992267</v>
+        <v>42.38889793622277</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>52.14806431399184</v>
+        <v>47.69967684109886</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>54.48558356042928</v>
+        <v>47.18737881956203</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.29258904286266</v>
+        <v>57.11465538459029</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.41246933869387</v>
+        <v>62.23260309807508</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.39850872035046</v>
+        <v>27.84035591375063</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>55.04222000301142</v>
+        <v>50.16121124589292</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>56.60481898153446</v>
+        <v>57.95655912230952</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>46.99023442345477</v>
+        <v>30.06611822166624</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.34760799833386</v>
+        <v>29.5475553639749</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.05198917621131</v>
+        <v>39.47430267330756</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.22433181508486</v>
+        <v>44.59238647558984</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.34801305031968</v>
+        <v>10.20551996883412</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.39313226148731</v>
+        <v>32.52392663907678</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.16742712950138</v>
+        <v>40.31847619523571</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.20726487066908</v>
+        <v>4.351663217673511</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.36443662382043</v>
+        <v>32.7851331223359</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.75081327405486</v>
+        <v>40.41999666610322</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.88029897919308</v>
+        <v>8.971332152380249</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.13564606308825</v>
+        <v>26.68218723622103</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.248941486327</v>
+        <v>32.92786831607534</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.20451543273222</v>
+        <v>20.89672577560909</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.1524346715604</v>
+        <v>34.53725910073072</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.49208151210684</v>
+        <v>39.84831426664473</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>49.51435709313749</v>
+        <v>39.33487636737302</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>53.00252481294359</v>
+        <v>49.26209592538444</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.16465211673607</v>
+        <v>54.3802328271528</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.1720669277351</v>
+        <v>19.98856166993291</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>48.774095803713</v>
+        <v>42.30878919128363</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>57.85652871472952</v>
+        <v>50.10443671170074</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.3398647254689</v>
+        <v>-13.99461644205903</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.62154244619521</v>
+        <v>14.43044402717103</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.43887749880749</v>
+        <v>22.06122218695739</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.39257641963359</v>
+        <v>-9.375816001428667</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>30.09549390384864</v>
+        <v>8.326726742118034</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.20039889234823</v>
+        <v>14.56853034358974</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.15469840647073</v>
+        <v>2.541032801758114</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.07425191300524</v>
+        <v>16.17397404368912</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.21894424141034</v>
+        <v>21.48144488288826</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.56141978410415</v>
+        <v>20.96350144585349</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.84752798585353</v>
+        <v>30.88606440913568</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.30420450242677</v>
+        <v>36.00153339606654</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.68806223034995</v>
+        <v>1.624593749498807</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.91957058483149</v>
+        <v>23.93220542208658</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.36662408017684</v>
+        <v>31.72517576583723</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.32203000125858</v>
+        <v>-9.438083515719974</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.93437588535301</v>
+        <v>18.99292362240444</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.59153006623879</v>
+        <v>26.62667018084883</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.04266854674737</v>
+        <v>-4.828680081693257</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.87086826737542</v>
+        <v>12.87947596626989</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.14747172126156</v>
+        <v>19.12402725796417</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.36472466331659</v>
+        <v>7.094616528440405</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.70397789156608</v>
+        <v>20.7331375118006</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.88759986767165</v>
+        <v>-4.507898536790982</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.01997832769536</v>
+        <v>23.91813954959584</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.98302989736266</v>
+        <v>31.54885058057985</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.29918705405316</v>
+        <v>0.1131532995795155</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.85830734718222</v>
+        <v>17.81661491615446</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.39737323690231</v>
+        <v>24.05831822352811</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.85871918112513</v>
+        <v>12.03068086827889</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.0818269714628</v>
+        <v>25.66437506036063</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.01788676384978</v>
+        <v>30.97174477497665</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.88087818928256</v>
+        <v>30.45478179839724</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.3190060502848</v>
+        <v>40.37741304213093</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>41.44926615129638</v>
+        <v>45.49284325271937</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.79073670814904</v>
+        <v>11.11486473697325</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.17724844812367</v>
+        <v>33.42355003757157</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.25222704285718</v>
+        <v>41.21639729335768</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.34982711175396</v>
+        <v>0.05144145483497908</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.73600579190168</v>
+        <v>28.4834263003519</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.26838527288947</v>
+        <v>36.1171057755487</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.13479935117819</v>
+        <v>4.663096633946019</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.85158867685739</v>
+        <v>22.37217164104813</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.70756841413878</v>
+        <v>28.6166226784708</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.71411332223821</v>
+        <v>16.58707219177941</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>40.99062720142952</v>
+        <v>30.226346204522</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.24892006745232</v>
+        <v>-0.7471707751611589</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.0429803031807</v>
+        <v>27.67914774892179</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.66962145818144</v>
+        <v>35.30993720996914</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.9963776863803</v>
+        <v>3.874956218428814</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.65416332573825</v>
+        <v>21.57873841495782</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.74287270129312</v>
+        <v>27.82054581419302</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.5436926577615</v>
+        <v>15.79257322596472</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.30829998611907</v>
+        <v>29.42654834015755</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43.63549460338009</v>
+        <v>34.73399843288521</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.4163545467638</v>
+        <v>34.21709054897749</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>47.4017334209518</v>
+        <v>44.13968793594554</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.91297304580559</v>
+        <v>49.25519328825569</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.56702240357233</v>
+        <v>14.87684614204934</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.83518547591094</v>
+        <v>37.18596507979932</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.85965415386564</v>
+        <v>44.9788755807622</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.98652288925674</v>
+        <v>3.813038270902915</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.22072350609634</v>
+        <v>32.245303562308</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.71407998175367</v>
+        <v>39.87906148483412</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.94519450357774</v>
+        <v>8.425768761435982</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.47919596744624</v>
+        <v>26.13516435780493</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.91398792355579</v>
+        <v>32.37971950819942</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.88285926928467</v>
+        <v>20.34983377964445</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.94663175807334</v>
+        <v>33.98938872218596</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.72843578079826</v>
+        <v>-8.593218986775561</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.90163079449687</v>
+        <v>19.83243505076612</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.81127682670042</v>
+        <v>27.46347130112681</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.78615941662215</v>
+        <v>-3.972524434520189</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.13660487574715</v>
+        <v>13.73063713994204</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>37.40543902766253</v>
+        <v>19.97275728059574</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.19563958733284</v>
+        <v>7.944422983431672</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.1052487938341</v>
+        <v>21.57790837309451</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>45.53949048617211</v>
+        <v>26.88563470501756</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>45.49825682348569</v>
+        <v>26.36758699975487</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>48.38828121864968</v>
+        <v>36.29012737614519</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>49.36349524999561</v>
+        <v>41.40582190121611</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.20689991389531</v>
+        <v>7.028050737992565</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.12726314743503</v>
+        <v>29.3365419254425</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.62628041150921</v>
+        <v>37.12975205628506</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.36829462922679</v>
+        <v>-4.035459717470737</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.4091970068641</v>
+        <v>24.39614102595285</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.95922079298907</v>
+        <v>32.03014572584973</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.03085038350501</v>
+        <v>0.5758380132943088</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.83846786591601</v>
+        <v>18.28461293003968</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.16201421675519</v>
+        <v>24.52948082031607</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.10031203022617</v>
+        <v>12.49923328666468</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>39.57596751509021</v>
+        <v>26.13829845481589</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.17116388162965</v>
+        <v>26.0427753148738</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.08572937837829</v>
+        <v>25.52436053427348</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.26196298294575</v>
+        <v>35.45119820898972</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.5943324782011</v>
+        <v>40.56887984144489</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.05504911589153</v>
+        <v>6.182352142457283</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.07344063609403</v>
+        <v>28.50032979451819</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.0696055604591</v>
+        <v>36.29428564004561</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.74589814843981</v>
+        <v>0.3296976224374006</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.06500095486893</v>
+        <v>28.76271183967108</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.57876360051118</v>
+        <v>36.39708929301641</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.08263574579745</v>
+        <v>4.947044455019316</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.2608957266691</v>
+        <v>22.65745052940044</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.22220602627349</v>
+        <v>28.90257629145005</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.69070399027663</v>
+        <v>16.87249409293977</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.82378068323212</v>
+        <v>30.51270324052805</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.03625654675458</v>
+        <v>35.82328695625406</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.97105326241135</v>
+        <v>35.30999706872117</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.81820000701899</v>
+        <v>45.23730698579313</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.84576806695878</v>
+        <v>50.35504177059229</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.58837911152091</v>
+        <v>15.96370945401056</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.50243315554556</v>
+        <v>38.28350799510863</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.34107657806531</v>
+        <v>46.07856178626027</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>40.73771084979271</v>
+        <v>35.53588291929</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>39.7750073914675</v>
+        <v>35.01844852744332</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.17331776574927</v>
+        <v>44.94535446778925</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.93113378377353</v>
+        <v>50.06299735138239</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.8411798336505</v>
+        <v>15.67543070693809</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.52266355694906</v>
+        <v>37.99448211658287</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.83165137161494</v>
+        <v>45.788314912145</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.19195557965506</v>
+        <v>9.820452564164405</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.92490715276401</v>
+        <v>38.25444450669308</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.94274832061519</v>
+        <v>45.8887548296108</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.61334096130031</v>
+        <v>14.44005128001563</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.74264944769381</v>
+        <v>32.15137632388066</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.73017003234364</v>
+        <v>38.396401790974</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.33067843581075</v>
+        <v>26.36617993393988</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>41.91942509270018</v>
+        <v>40.00714212733308</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.85821759029926</v>
+        <v>45.3176247196724</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>45.0468835967197</v>
+        <v>44.80531526088148</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>45.93581824225271</v>
+        <v>54.73269344983637</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>46.2281761706827</v>
+        <v>59.85038946524858</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.73950968914721</v>
+        <v>25.45801819041585</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.46755843773101</v>
+        <v>47.7788904853601</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>45.99508499698194</v>
+        <v>55.57382120296759</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>41.1682989515494</v>
+        <v>39.29900583374356</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>37.24793294327139</v>
+        <v>38.78162643064118</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>40.04739917121332</v>
+        <v>48.70849848097739</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>43.07857845882083</v>
+        <v>53.82621652244622</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.36027198499926</v>
+        <v>19.43828130370834</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.53216162103394</v>
+        <v>41.75776635758088</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.36212179742615</v>
+        <v>49.55166242020791</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.55969877110555</v>
+        <v>13.58291229455906</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.70675400524296</v>
+        <v>42.01718468694391</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.84694294060007</v>
+        <v>49.65157343861394</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.21479719342727</v>
+        <v>18.20358636911319</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.4767228246478</v>
+        <v>35.91523200486406</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.85440345941215</v>
+        <v>42.16036157193744</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.24105373793969</v>
+        <v>30.12980451367596</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>42.9156039335457</v>
+        <v>43.77104764468097</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.01599467240984</v>
+        <v>49.08161061872922</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.02529973605522</v>
+        <v>48.56935614519855</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>46.42117781570362</v>
+        <v>58.49670044508584</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>48.40818532089047</v>
+        <v>63.61447160659693</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.82529520994773</v>
+        <v>29.22173173835088</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>46.97477994460363</v>
+        <v>51.54303766871592</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.15997729299625</v>
+        <v>59.33803164684277</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>41.62652807755492</v>
+        <v>31.44819180063759</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.74258849878769</v>
+        <v>30.92967253477152</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.45910324504828</v>
+        <v>40.85648758016944</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.15471105292743</v>
+        <v>45.97439479766856</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.18604364083489</v>
+        <v>11.58703566041529</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.85059192534905</v>
+        <v>33.90589288621188</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.78959983373084</v>
+        <v>41.7000885653845</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.43210666696114</v>
+        <v>5.734039296458171</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.75972174637575</v>
+        <v>34.16764713912928</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.70024458289205</v>
+        <v>41.80228270722548</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.20711464264392</v>
+        <v>10.35328055864866</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.09258365467718</v>
+        <v>28.06430552203917</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.59658583826116</v>
+        <v>34.30974786698143</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.51439678429587</v>
+        <v>22.27882892662617</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.79313692872044</v>
+        <v>35.91958228608316</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.80758117272232</v>
+        <v>41.23042152590144</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.51430760415629</v>
+        <v>40.71702717330029</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.43002216463061</v>
+        <v>50.64431446621338</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.04479101012506</v>
+        <v>55.76227481391199</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.63541559473631</v>
+        <v>21.37011098313851</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.2264140331726</v>
+        <v>43.69078909210875</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>46.70408280437589</v>
+        <v>51.48608271606795</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.69834843342447</v>
+        <v>-10.16170353059895</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.76002861676891</v>
+        <v>18.26678524576712</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.90936192226157</v>
+        <v>25.89850828526064</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.4703952126134</v>
+        <v>-5.541598095780593</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.70853788961104</v>
+        <v>12.16327354261229</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.73153619136389</v>
+        <v>18.4058701237615</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.59192038733291</v>
+        <v>6.376626347250543</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.80952815383106</v>
+        <v>20.01137887824589</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.86172764434776</v>
+        <v>25.31954467203106</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.69167784497083</v>
+        <v>24.80147730503997</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.78047594758236</v>
+        <v>34.72535381028981</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.74764466365019</v>
+        <v>39.84138843548046</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.84005211350907</v>
+        <v>5.460207016076673</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.73081666971161</v>
+        <v>27.77056682302693</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.09035605866534</v>
+        <v>35.5645239317595</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.43188514700144</v>
+        <v>-5.602495168828092</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.61763686007097</v>
+        <v>22.8319409222702</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.76641490768552</v>
+        <v>30.46663256850095</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.44662845170555</v>
+        <v>-0.9917876307522207</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.45059621014218</v>
+        <v>16.71869794289525</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.45222949068928</v>
+        <v>22.96404237836591</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.44651633863017</v>
+        <v>10.93288538285824</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.50014226869084</v>
+        <v>24.57321826912769</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.66572831742213</v>
+        <v>-0.6738064428459225</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.75835590221063</v>
+        <v>27.7556600598589</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.94255893925349</v>
+        <v>35.38731595782624</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.47220820766571</v>
+        <v>3.948550633537955</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.88552009470584</v>
+        <v>21.6543412496077</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.87670416414045</v>
+        <v>27.89683751909913</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.56122978371576</v>
+        <v>15.86745392069579</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.12529524435772</v>
+        <v>29.50295948813564</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.14660483061981</v>
+        <v>34.8110241398987</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.18028384554366</v>
+        <v>34.29393733106487</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.38887813956202</v>
+        <v>44.21788212731646</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.32369503727428</v>
+        <v>49.33387797098523</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.10396117528805</v>
+        <v>14.95165756586677</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.54663677016462</v>
+        <v>37.26309111788284</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.60133986631942</v>
+        <v>45.05692512022281</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.5541216304611</v>
+        <v>3.888209264980695</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.61693624898644</v>
+        <v>32.32362317280379</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.74309456121115</v>
+        <v>39.95824772311234</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.44004626056648</v>
+        <v>8.501168794719682</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.55379624344026</v>
+        <v>26.2125734319309</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.65358461582296</v>
+        <v>32.45781759552644</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.38960028651708</v>
+        <v>20.42652083403427</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.67459464654896</v>
+        <v>34.06760683607606</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.66560106980515</v>
+        <v>3.087366614817618</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.81695468129846</v>
+        <v>31.5171135865568</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.02866021883413</v>
+        <v>39.14884791880799</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.45740541645288</v>
+        <v>7.710798958908207</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.87651390103061</v>
+        <v>25.41691019140617</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.9822363161655</v>
+        <v>31.65951055874293</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.58878386049188</v>
+        <v>19.62979169583391</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.25352518239382</v>
+        <v>33.26557821810515</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.28323606976556</v>
+        <v>38.57372325159977</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.24187517420067</v>
+        <v>38.056691539814</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.24267153564912</v>
+        <v>47.98060247598769</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.35637918470339</v>
+        <v>53.09667346857068</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.83783466146201</v>
+        <v>18.71408439268966</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.43124200507082</v>
+        <v>41.02595162895854</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.63025035552083</v>
+        <v>48.8198488796153</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.60333603518571</v>
+        <v>7.650251453365421</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.68851919936445</v>
+        <v>36.08594583827007</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.76660238006295</v>
+        <v>43.72064884017666</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.45289487915248</v>
+        <v>12.26428640462225</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.61406459240186</v>
+        <v>29.97601166783956</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.70256822180472</v>
+        <v>36.22135995049464</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.55627218439803</v>
+        <v>24.18972791583987</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.81617266516226</v>
+        <v>37.83109488015852</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.5328638282827</v>
+        <v>-4.759638915201414</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.56698873057697</v>
+        <v>23.66944349822679</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.74926034137057</v>
+        <v>31.30142464835162</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.41573362455729</v>
+        <v>-0.1376391720992629</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.62835727715396</v>
+        <v>17.56785137053023</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.84342174342871</v>
+        <v>23.8107645154827</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.43744482047838</v>
+        <v>11.78068389966258</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.71294339390526</v>
+        <v>25.41598064369375</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.03778498275316</v>
+        <v>30.72440194882372</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.74192740360515</v>
+        <v>30.2062302999399</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.80204843323062</v>
+        <v>40.13008421736756</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.95212550301182</v>
+        <v>45.2463444033664</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.4982299907757</v>
+        <v>10.86433137300698</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.974097930603</v>
+        <v>33.17557079293433</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.57820084083679</v>
+        <v>40.9697677081381</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.47327363855074</v>
+        <v>-0.19920409448887</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.59116353888331</v>
+        <v>28.23582567072938</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.6832362695914</v>
+        <v>35.87077547848494</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.44732048951203</v>
+        <v>4.413397936853947</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.52251231003743</v>
+        <v>22.12450245278935</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.604316974126</v>
+        <v>28.3701635115822</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.45301361236412</v>
+        <v>16.33816962770609</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.62251239225273</v>
+        <v>29.97904676408782</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.57359430515659</v>
+        <v>29.883551144893</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.47324801592322</v>
+        <v>29.36501236867675</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.63072977167985</v>
+        <v>39.29316403071666</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.67736256726555</v>
+        <v>44.41141150366857</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.44954331857289</v>
+        <v>10.02064108892719</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.47863792298084</v>
+        <v>32.34136796741713</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.51393698576111</v>
+        <v>40.13631056672434</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.65865685806949</v>
+        <v>4.164391099618932</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.81941737012859</v>
+        <v>32.60083438331187</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.00486984106434</v>
+        <v>40.23615706497221</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.45887516205023</v>
+        <v>8.783042871128508</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.5301198133908</v>
+        <v>26.49577860739648</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.58453640040945</v>
+        <v>32.74169765003094</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.51131303405306</v>
+        <v>20.70986899012089</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.74543395878839</v>
+        <v>34.35189012701655</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.98553872971738</v>
+        <v>39.66316908366618</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.71082978092782</v>
+        <v>39.14975578407202</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.99666021513087</v>
+        <v>49.07837975856093</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.9755096867164</v>
+        <v>54.19668041433956</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.51219628485298</v>
+        <v>19.80110493314591</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.66863959612352</v>
+        <v>42.12365282479586</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.78745813101417</v>
+        <v>49.91969356032214</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.84701685743014</v>
+        <v>39.37783860580853</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.67902379099436</v>
+        <v>38.86028031642572</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.96432602977104</v>
+        <v>48.7885002546649</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.05553224832981</v>
+        <v>53.90670897333327</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.6684807035989</v>
+        <v>19.51489949698648</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.85657892332317</v>
+        <v>41.83670025008293</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.83666649076291</v>
+        <v>49.6315197810492</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.79817287102309</v>
+        <v>13.65632560010922</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.92997243051619</v>
+        <v>42.0937467183003</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.23872879803038</v>
+        <v>49.72900225678918</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.49644766959788</v>
+        <v>18.27722950093575</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.94149187068895</v>
+        <v>35.99088431118994</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.08515112349997</v>
+        <v>42.23670304120392</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.6451804707379</v>
+        <v>30.20473471429366</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.27515484832351</v>
+        <v>43.84750898307575</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.57058879921934</v>
+        <v>49.15868679867915</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.42399048186103</v>
+        <v>48.64625402614981</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.72131730908573</v>
+        <v>58.57494628291013</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.89517692893153</v>
+        <v>63.69320816391441</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.14788479428555</v>
+        <v>29.29659360831126</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.47838874569838</v>
+        <v>51.62021537092405</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.5665221873214</v>
+        <v>59.41613301443171</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.05418448294551</v>
+        <v>43.14140705062109</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.80239607427587</v>
+        <v>42.62390375397822</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.84654352471678</v>
+        <v>52.55208979875308</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.94563378768846</v>
+        <v>57.67037368269498</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.658394398045</v>
+        <v>23.27819559150375</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.88893405448252</v>
+        <v>45.60043003589399</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.92491451954637</v>
+        <v>53.39531283714668</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.80198672154206</v>
+        <v>17.41923078995764</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.94046145806265</v>
+        <v>45.85693238945853</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.2329411779548</v>
+        <v>53.49226636068547</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.46524045576075</v>
+        <v>22.04121015983642</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.99589920487995</v>
+        <v>39.75518559865181</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.072663575913</v>
+        <v>46.0011084345921</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.69181139524316</v>
+        <v>33.96880487487149</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.41047444767572</v>
+        <v>47.61186011415352</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.71681417510064</v>
+        <v>52.92311831515919</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.60447498792437</v>
+        <v>52.41074053210288</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.71239813498567</v>
+        <v>62.33939889625528</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.9927219554564</v>
+        <v>67.4577359305745</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.93002888380841</v>
+        <v>33.06075274142247</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.43554760499106</v>
+        <v>55.38480818647999</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.57109578327399</v>
+        <v>63.18078909361068</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.76079958545177</v>
+        <v>35.28963520126356</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.52000284896907</v>
+        <v>34.77099192610333</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.55013497799336</v>
+        <v>44.6991209579618</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.56410055988077</v>
+        <v>49.81759403845515</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.48769349405573</v>
+        <v>15.42599209131097</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.66278961190908</v>
+        <v>37.74759864165721</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.72328099944944</v>
+        <v>45.54278109426425</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.61868052392008</v>
+        <v>9.569400216785219</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.8670368127785</v>
+        <v>38.00643719482721</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.17026636879019</v>
+        <v>45.64201801120796</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.46460307075326</v>
+        <v>14.18994661435286</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.91433014901189</v>
+        <v>31.90330131326245</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.11327706260819</v>
+        <v>38.14953696329976</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.48659481337339</v>
+        <v>26.11687147769273</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.21620237704298</v>
+        <v>39.75943689169267</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.5979326026802</v>
+        <v>45.07097139091118</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.29514171477376</v>
+        <v>44.55745361284189</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.45451217393195</v>
+        <v>54.48605496210396</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.78302876741287</v>
+        <v>59.60458120311457</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.51112862530687</v>
+        <v>25.2081741139182</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.09572390954477</v>
+        <v>47.53160167145543</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.53525248928849</v>
+        <v>55.32788225910465</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.81921502039311</v>
+        <v>-9.943286233054643</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.92585121522291</v>
+        <v>18.48309225009714</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.62239758487435</v>
+        <v>26.11474260946013</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.21730671828162</v>
+        <v>-5.323173259045667</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.22684601624438</v>
+        <v>12.38008679929342</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.45181277561694</v>
+        <v>18.62273316899225</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.41880631945462</v>
+        <v>6.594029956874031</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.94625821212863</v>
+        <v>20.22744210468502</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.8945784041341</v>
+        <v>25.53563909903507</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.87922732468551</v>
+        <v>25.01738422325436</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.15421095595168</v>
+        <v>34.94050950687474</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.02063931070325</v>
+        <v>40.05658818151644</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.09056300165639</v>
+        <v>5.67809682418342</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.82293720814909</v>
+        <v>27.98636644364185</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.65384434467154</v>
+        <v>35.78038280011256</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.2739741074739</v>
+        <v>-5.384505126879255</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.89597807411821</v>
+        <v>23.04782032275968</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.48887174388393</v>
+        <v>30.68243919191834</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.16537196557216</v>
+        <v>-0.7737895476260306</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.51635392783668</v>
+        <v>16.93508413044028</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.62872871039939</v>
+        <v>23.18047827121247</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.14670657536502</v>
+        <v>11.1498617460194</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.89234295122778</v>
+        <v>24.78885394105841</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.25277110039153</v>
+        <v>-0.4557489081282498</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.36597207310315</v>
+        <v>27.97160724171956</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.64936517632072</v>
+        <v>35.60319047130249</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.25737357069563</v>
+        <v>4.166615573628427</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.74645842508664</v>
+        <v>21.87079455147207</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.82012584353779</v>
+        <v>28.11334062334642</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.58812290580081</v>
+        <v>16.08449760814462</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.3980824193638</v>
+        <v>29.71866274494757</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.39023474843693</v>
+        <v>35.02675860961997</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.46516963429101</v>
+        <v>34.50948422972717</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.82568244783217</v>
+        <v>44.43267780231215</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.6591872323839</v>
+        <v>49.54871769843137</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.94418516536097</v>
+        <v>15.16918741711029</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.03243716381304</v>
+        <v>37.47853071113618</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.04849568834202</v>
+        <v>45.27242397514274</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.71607914314095</v>
+        <v>4.105839369709109</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.85007613206637</v>
+        <v>32.53914257631143</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.1598672245606</v>
+        <v>40.1736943611801</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.17573526816141</v>
+        <v>8.71880680616291</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.83073904012662</v>
+        <v>26.42859948980222</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.16404975326037</v>
+        <v>32.67389337247405</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.8303479847014</v>
+        <v>20.64313710075421</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.36466789457714</v>
+        <v>34.28288236382641</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.59334665021705</v>
+        <v>3.305289801722118</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.24693151807512</v>
+        <v>31.73292640865818</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.6231544941835</v>
+        <v>39.36458806952046</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.18421762069413</v>
+        <v>7.928729485824555</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.74253131925405</v>
+        <v>25.63322906588783</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.79831585345269</v>
+        <v>31.87587923127196</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.46484601862655</v>
+        <v>19.84670097381265</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.52764436956951</v>
+        <v>33.48114705341654</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.53376641545871</v>
+        <v>38.78932329660531</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.50746722421251</v>
+        <v>38.27210400285994</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.69398973200367</v>
+        <v>48.19526371917461</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.97561471431569</v>
+        <v>53.3113787608386</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.69981506771837</v>
+        <v>18.93147982026064</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.80386980820678</v>
+        <v>41.24125677790587</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.15573014270294</v>
+        <v>49.03521328876356</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.4895849242493</v>
+        <v>7.86774715992842</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.98195031702391</v>
+        <v>36.30133083180331</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.25164949573505</v>
+        <v>43.93596106548025</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.18080376636401</v>
+        <v>12.48178995296384</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.07086080402673</v>
+        <v>30.19190324834621</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.48017833388878</v>
+        <v>36.43730124572507</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.39673738897103</v>
+        <v>24.40620972288277</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.58316780549561</v>
+        <v>38.04623593614033</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.30464068930324</v>
+        <v>-4.541394495112151</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.37982535307176</v>
+        <v>23.88557759851269</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.98118369544606</v>
+        <v>31.51748605824755</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.10371727347713</v>
+        <v>0.08061267334519329</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23022962477369</v>
+        <v>17.78449160737616</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.73924192856052</v>
+        <v>24.02745452703984</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.15029053796157</v>
+        <v>11.99791452589627</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.82603400173088</v>
+        <v>25.63187086244104</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.22009556732527</v>
+        <v>30.9403233570911</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.03595937137695</v>
+        <v>30.42196418670758</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.2090443507563</v>
+        <v>40.34506688653882</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.33577371863946</v>
+        <v>45.46137111359328</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.99935763526077</v>
+        <v>11.08204817585115</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.85701207324499</v>
+        <v>33.3911973644439</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.78510617266075</v>
+        <v>41.18545352043466</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.23259407859573</v>
+        <v>0.01861299966221708</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.82786356828494</v>
+        <v>28.45153209688751</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.11411902729126</v>
+        <v>36.08640911722798</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.17759642153914</v>
+        <v>4.631222958365832</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.74493268075363</v>
+        <v>22.34071555018888</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.94780900740267</v>
+        <v>28.58642630042154</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.16477944314901</v>
+        <v>16.55497293749104</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.19899295672835</v>
+        <v>30.19450935809871</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.01894814472285</v>
+        <v>30.09921795389746</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.68003671545358</v>
+        <v>29.58049166636479</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.75488439589524</v>
+        <v>39.50789188654883</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.11246540654583</v>
+        <v>44.62618337497874</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.34947976547157</v>
+        <v>10.23810341825256</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.84279730966616</v>
+        <v>32.55673959704156</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.00982858623579</v>
+        <v>40.35174138916127</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.61588281297328</v>
+        <v>4.382167161417009</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.02775283015275</v>
+        <v>32.81649969476975</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.61885758182536</v>
+        <v>40.45174953523783</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.20919308038565</v>
+        <v>9.000826551692306</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.50750202805233</v>
+        <v>26.71195026161651</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.72272136128871</v>
+        <v>32.95791894534036</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.23503561008884</v>
+        <v>20.92663085309109</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.01574467301091</v>
+        <v>34.56731120446786</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.54556630535045</v>
+        <v>39.87862120773902</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.03493212682723</v>
+        <v>39.36502016357328</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.72698606324835</v>
+        <v>49.29289266288233</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.70510101428276</v>
+        <v>54.41123727764604</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.34391180829912</v>
+        <v>20.01835256700999</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.85903841770619</v>
+        <v>42.33880962911214</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.16320692390132</v>
+        <v>50.13490949638483</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.98554252075355</v>
+        <v>39.59314528306449</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.12765330756319</v>
+        <v>39.07539941977429</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.38613596687495</v>
+        <v>49.00286791427006</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.90427455900386</v>
+        <v>54.12112065149201</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.77553356038055</v>
+        <v>19.73200169457075</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.70783840734323</v>
+        <v>42.05171167740163</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.46322107192516</v>
+        <v>49.84659041526199</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.92758188588169</v>
+        <v>13.8737416760089</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.02473980856528</v>
+        <v>42.3090519840131</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.28553313975211</v>
+        <v>49.94423469297478</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.24012708131706</v>
+        <v>18.49465306166589</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.45686361095149</v>
+        <v>36.20669578735171</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.19675500023013</v>
+        <v>42.45256417216765</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.37559212900555</v>
+        <v>30.42113643226198</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.26099483412715</v>
+        <v>44.0625698679303</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.92717664303014</v>
+        <v>49.37377874251901</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.24069874902049</v>
+        <v>48.86115816259407</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.98271992941488</v>
+        <v>58.78909894238304</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.75764183351163</v>
+        <v>63.90740478544935</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.25163920366456</v>
+        <v>29.51348106197101</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>31.28805124727967</v>
+        <v>51.83501192438236</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>31.39050684682766</v>
+        <v>59.63098871374634</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.65451932268989</v>
+        <v>43.35657925264174</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.37247298004958</v>
+        <v>42.83888837129725</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.57830117152177</v>
+        <v>52.76632297596486</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.52278986912804</v>
+        <v>57.8846508753111</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.40006067830286</v>
+        <v>23.49516331555267</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.60764901827857</v>
+        <v>45.81530696906466</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.69099644992364</v>
+        <v>53.61024897559835</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.754197652666</v>
+        <v>17.63651242356709</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.40023041053047</v>
+        <v>46.0721032011842</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.35973149467245</v>
+        <v>53.70736434032644</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.19182349898811</v>
+        <v>22.25849921337717</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.53642763454507</v>
+        <v>39.97086255342904</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.30132890473775</v>
+        <v>46.21683503989507</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.59532895071032</v>
+        <v>34.1850720891787</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.3706275064736</v>
+        <v>47.82678648342428</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.34508531278452</v>
+        <v>53.13807574020418</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.88174722199978</v>
+        <v>52.62551013879649</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.73240039699233</v>
+        <v>62.55341702972921</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.02854280645543</v>
+        <v>67.67179802272111</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.62576043122313</v>
+        <v>33.27750567761475</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.32907062593039</v>
+        <v>55.59947020176983</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.99721473914427</v>
+        <v>63.39551025318499</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.55676879957227</v>
+        <v>35.50512892138695</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.4548661455886</v>
+        <v>34.98629812201036</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.8813080497237</v>
+        <v>44.91367571598985</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.20938373641931</v>
+        <v>50.03219280384931</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.15682857051799</v>
+        <v>15.6432813450016</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.25878486855691</v>
+        <v>37.96279715188555</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.3552160159903</v>
+        <v>45.7580387903462</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.41038407335394</v>
+        <v>9.78700324295496</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.21024363566866</v>
+        <v>38.22192944417454</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.5576799096756</v>
+        <v>45.85743740930243</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.18643883527868</v>
+        <v>14.40755714574438</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.28155033614397</v>
+        <v>32.11929978958008</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.49835623661807</v>
+        <v>38.36558506677911</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.18613351082976</v>
+        <v>26.33346019952742</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.0045689563562</v>
+        <v>39.97468480354794</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.1779559479338</v>
+        <v>45.28625033849644</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.02976326601023</v>
+        <v>44.7725448027352</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.93229139388863</v>
+        <v>54.70039468096777</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>32.73245464680991</v>
+        <v>59.81896487271333</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.01680243115218</v>
+        <v>25.42524858462482</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.68683440094943</v>
+        <v>47.74658526872567</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.58762716051613</v>
+        <v>55.54292498135387</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-12.75405729046199</v>
+        <v>-12.75405729046381</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.67385214010894</v>
+        <v>15.67385214015714</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.30495246285036</v>
+        <v>23.30495246285775</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-8.133670494218315</v>
+        <v>-8.13367049417716</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.570925615771124</v>
+        <v>9.570925615809323</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.81287110403084</v>
+        <v>15.81287110405562</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.784268658349013</v>
+        <v>3.784268658346171</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.418786713351</v>
+        <v>17.41878671329552</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.72643342462904</v>
+        <v>22.72643342460869</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.20870372644756</v>
+        <v>22.20870372636593</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.13221457420175</v>
+        <v>32.13221457419561</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.24776315538204</v>
+        <v>37.24776315535748</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.867528951093526</v>
+        <v>2.867528950987229</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.17740662725478</v>
+        <v>25.17740662725307</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.97071418649843</v>
+        <v>32.97071418646944</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-8.194382146799036</v>
+        <v>-8.194382146788577</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.23947450159815</v>
+        <v>20.23947450157905</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.87354325621848</v>
+        <v>27.87354325620915</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.583393080327347</v>
+        <v>-3.583393080302791</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.12681685258817</v>
+        <v>14.1268168525735</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.37151001696943</v>
+        <v>20.37151001695022</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.340994615171574</v>
+        <v>8.340994615128601</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.98109292697736</v>
+        <v>21.98109292694541</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-3.266675270413977</v>
+        <v>-3.266675270368502</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.16221185621784</v>
+        <v>25.16221185619761</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.79324503728585</v>
+        <v>32.79324503728255</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.355963111793493</v>
+        <v>1.355963111804407</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.06147816929913</v>
+        <v>19.06147816929731</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.30332334759932</v>
+        <v>25.30332334759466</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.27458107321743</v>
+        <v>13.27458107325642</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.90985213865454</v>
+        <v>26.90985213868591</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.21739771166633</v>
+        <v>32.21739771168077</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.70064856397826</v>
+        <v>31.70064856395381</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.62422769481</v>
+        <v>41.62422769477691</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.73973749385109</v>
+        <v>46.73973749390804</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12.35846434006728</v>
+        <v>12.35846434005091</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.66941573029569</v>
+        <v>34.66941573030285</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.46260018452565</v>
+        <v>42.46260018454293</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.295807167740485</v>
+        <v>1.295807167792326</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.73064160240292</v>
+        <v>29.73064160242281</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.36464326110902</v>
+        <v>37.36464326113789</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.909048169557444</v>
+        <v>5.909048169565743</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.62017713597029</v>
+        <v>23.62017713598473</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.8647700302055</v>
+        <v>29.86477003025632</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.83411485640558</v>
+        <v>17.83411485638535</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.47496625781209</v>
+        <v>31.47496625777423</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.4943040331551387</v>
+        <v>0.4943040331314918</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.92347161915861</v>
+        <v>28.9234716191128</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.55458322954612</v>
+        <v>36.55458322949621</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.118017654076787</v>
+        <v>5.118017654066897</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.82385331680168</v>
+        <v>22.82385331678895</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.06580258792021</v>
+        <v>29.06580258785097</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.03672505609122</v>
+        <v>17.03672505607758</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.67227706605674</v>
+        <v>30.67227706601582</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.97990301685675</v>
+        <v>35.97990301686129</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.46320897749606</v>
+        <v>35.46320897749072</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.38675424619159</v>
+        <v>45.38675424615806</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50.50233919009397</v>
+        <v>50.50233919010113</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.12069737972026</v>
+        <v>16.12069737971844</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.43208244217103</v>
+        <v>38.43208244216648</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.22533013999284</v>
+        <v>46.22533014001467</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5.057655587251155</v>
+        <v>5.057655587244106</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.49277048937861</v>
+        <v>33.49277048940169</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>41.1268505948216</v>
+        <v>41.12685059479681</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.67197198160104</v>
+        <v>9.671971981644695</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.38342156282172</v>
+        <v>27.38342156286526</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.62811857104841</v>
+        <v>33.62811857103363</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21.59712813131753</v>
+        <v>21.5971281312517</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.23826048470985</v>
+        <v>35.23826048469086</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-7.352303521473551</v>
+        <v>-7.352303521466503</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.07619952766927</v>
+        <v>21.07619952761902</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.7075579448614</v>
+        <v>28.70755794491074</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2.730022465380308</v>
+        <v>-2.73002246534859</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14.97519252891347</v>
+        <v>14.97519252892689</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.21745456377473</v>
+        <v>21.21745456377769</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.188015301341714</v>
+        <v>9.18801530137798</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.82307755152114</v>
+        <v>22.82307755152296</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.13097976013184</v>
+        <v>28.13097976013855</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.61314580943942</v>
+        <v>27.6131458094633</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.53663406442083</v>
+        <v>37.53663406440014</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.65240819337262</v>
+        <v>42.65240819336784</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.271342409201701</v>
+        <v>8.271342409229099</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.58209967408529</v>
+        <v>30.58209967413725</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.37564702389002</v>
+        <v>38.37564702389036</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-2.791401935099294</v>
+        <v>-2.791401935105888</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.64304836833198</v>
+        <v>25.64304836832141</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.27737526860746</v>
+        <v>33.27737526864203</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.821481575603933</v>
+        <v>1.821481575570282</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.5323104308085</v>
+        <v>19.5323104308284</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.77732020134899</v>
+        <v>25.77732020136639</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.74596793461105</v>
+        <v>13.74596793455159</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.38661047859173</v>
+        <v>27.38661047860435</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.29090657344945</v>
+        <v>27.29090657348242</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.77270551359234</v>
+        <v>26.77270551361041</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.70049138417803</v>
+        <v>36.7004913842426</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.81825265288821</v>
+        <v>41.81825265294471</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.428429793992471</v>
+        <v>7.428429793978829</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.74867430517863</v>
+        <v>29.74867430515965</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.54296719335448</v>
+        <v>37.54296719339359</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1.573935504890891</v>
+        <v>1.573935504887253</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.00979936680871</v>
+        <v>30.00979936681781</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.64449911120087</v>
+        <v>37.64449911120632</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6.192868579984427</v>
+        <v>6.192868580028311</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.90532869207973</v>
+        <v>23.90532869202789</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.15059641134123</v>
+        <v>30.15059641129576</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.11940946491372</v>
+        <v>18.11940946484994</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.76119604690361</v>
+        <v>31.76119604685996</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.07195573631738</v>
+        <v>37.07195573630067</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.55887993548256</v>
+        <v>36.55887993548074</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.48713812107658</v>
+        <v>46.48713812110579</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.60495258710719</v>
+        <v>51.60495258717449</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.21032465460998</v>
+        <v>17.21032465461192</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.53239023126209</v>
+        <v>39.53239023125402</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.32778118079946</v>
+        <v>47.32778118076683</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.78467880223197</v>
+        <v>36.78467880220992</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.26745822128853</v>
+        <v>36.26745822125499</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.19531236000082</v>
+        <v>46.19531235998968</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.31303487410289</v>
+        <v>51.3130348741146</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.92217298924438</v>
+        <v>16.922172989262</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.24349134403237</v>
+        <v>39.24349134402953</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>47.03766116537295</v>
+        <v>47.03766116537897</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>11.06535485957411</v>
+        <v>11.06535485965414</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.50219652555202</v>
+        <v>39.50219652556111</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.13682912679828</v>
+        <v>47.1368291268599</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.68654000795666</v>
+        <v>15.68654000797098</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.39991916379201</v>
+        <v>33.3999191637994</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.64508657224612</v>
+        <v>39.64508657225613</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.61375995251446</v>
+        <v>27.61375995252515</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.25629964044744</v>
+        <v>41.25629964041004</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.56695819263759</v>
+        <v>46.56695819263054</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.05486291078537</v>
+        <v>46.0548629108006</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.98318937078195</v>
+        <v>55.98318937078229</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>61.10096506179925</v>
+        <v>61.10096506184632</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.70529809054769</v>
+        <v>26.70529809053746</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.02843750733827</v>
+        <v>49.02843750738182</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>56.82370536620831</v>
+        <v>56.82370536627425</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.54805342569946</v>
+        <v>40.54805342566933</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.03088784848457</v>
+        <v>40.03088784849924</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.95870809167857</v>
+        <v>49.95870809167504</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>55.07650576718256</v>
+        <v>55.07650576721155</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.68527528209361</v>
+        <v>20.68527528206257</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43.0070273159446</v>
+        <v>43.00702731592221</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.80126040292216</v>
+        <v>50.80126040294206</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.82806626164884</v>
+        <v>14.82806626166941</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.26518839902737</v>
+        <v>43.26518839896973</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50.89989942827437</v>
+        <v>50.89989942822947</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.45032685013816</v>
+        <v>19.45032685012168</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.16402662313228</v>
+        <v>37.16402662309033</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.40929813246512</v>
+        <v>43.4092981323736</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.37763628702523</v>
+        <v>31.37763628704786</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.02045693521929</v>
+        <v>45.02045693521736</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>50.33119586901162</v>
+        <v>50.33119586900082</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>49.81915558752203</v>
+        <v>49.81915558754147</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.74744815291515</v>
+        <v>59.74744815292117</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>64.86529899323082</v>
+        <v>64.86529899318251</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.46926340323173</v>
+        <v>30.46926340321968</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.79283648996456</v>
+        <v>52.79283649002266</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.58816760769289</v>
+        <v>60.58816760768766</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.69667967245427</v>
+        <v>32.69667967247189</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.17837414257226</v>
+        <v>32.17837414253497</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.10613737768519</v>
+        <v>42.10613737767257</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.22412424134952</v>
+        <v>47.22412424135248</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.83346988066594</v>
+        <v>12.83346988063342</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.15459403963396</v>
+        <v>35.15459403966749</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.94912676513561</v>
+        <v>42.94912676513675</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6.978633732478464</v>
+        <v>6.978633732514844</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.41509126959638</v>
+        <v>35.41509126963367</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.05004913309258</v>
+        <v>43.05004913313532</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>11.59946138491002</v>
+        <v>11.59946138489388</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.31254043942194</v>
+        <v>29.31254043938375</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.55812474891925</v>
+        <v>35.55812474897655</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.52610099976234</v>
+        <v>23.5261009997595</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.16843184109907</v>
+        <v>37.1684318411018</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.47944705911075</v>
+        <v>42.4794470590572</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.96626680867669</v>
+        <v>41.96626680867134</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.8945023639292</v>
+        <v>51.89450236392943</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>57.01254240250639</v>
+        <v>57.01254240251912</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.61708289322976</v>
+        <v>22.61708289314881</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.94002811141868</v>
+        <v>44.9400281113815</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.7356588970272</v>
+        <v>52.73565889701845</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-15.37789000263761</v>
+        <v>-15.37789000263044</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.04703250324931</v>
+        <v>13.04703250331297</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.67803866702334</v>
+        <v>20.67803866703141</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-10.75866185392304</v>
+        <v>-10.75866185392952</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6.94371096934244</v>
+        <v>6.943710969381662</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.18575335011828</v>
+        <v>13.18575335013238</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1.158032239101225</v>
+        <v>1.158032239037674</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>14.79075340169427</v>
+        <v>14.79075340168983</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.0984402146453</v>
+        <v>20.09844021460255</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.5804531986329</v>
+        <v>19.58045319856378</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.50294839072605</v>
+        <v>29.50294839069081</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.6185939263436</v>
+        <v>34.61859392629653</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.2421470323003163</v>
+        <v>0.2421470322698482</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.54930801474747</v>
+        <v>22.54930801473235</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.34263233593801</v>
+        <v>30.3426323358839</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-10.82052517266934</v>
+        <v>-10.8205251727255</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.61034403796329</v>
+        <v>17.61034403787792</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.24431858295534</v>
+        <v>25.24431858296034</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-6.210694060122911</v>
+        <v>-6.210694060108928</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.49729212598881</v>
+        <v>11.49729212599382</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.74208216483273</v>
+        <v>17.74208216480147</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.712447809865715</v>
+        <v>5.712447809831154</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.35074876735566</v>
+        <v>19.35074876731928</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-5.890970858050288</v>
+        <v>-5.890970858036418</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.53492926318668</v>
+        <v>22.53492926317633</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.16586830264387</v>
+        <v>30.16586830263727</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1.269491318951147</v>
+        <v>-1.269491318946031</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.43380037502529</v>
+        <v>16.43380037506417</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.67574246671463</v>
+        <v>22.67574246673771</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.64788155216561</v>
+        <v>10.64788155220324</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.28135566259029</v>
+        <v>24.28135566258529</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.58894135540108</v>
+        <v>29.58894135537368</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.07193479220145</v>
+        <v>29.07193479224409</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.99449826654133</v>
+        <v>38.99449826654213</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.1101050260394</v>
+        <v>44.11010502605406</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>9.73261926310547</v>
+        <v>9.732619263046011</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.04085386695228</v>
+        <v>32.04085386701686</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.83405510367029</v>
+        <v>39.83405510367972</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-1.330798976922189</v>
+        <v>-1.3307989769472</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.10104793924258</v>
+        <v>27.10104793922064</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.734955405502</v>
+        <v>34.73495540548119</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3.281283875634266</v>
+        <v>3.281283875650068</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.99018901832599</v>
+        <v>20.99018901836032</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.23487880767677</v>
+        <v>27.23487880769485</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.20510470598324</v>
+        <v>15.20510470601257</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.84415869060106</v>
+        <v>28.84415869062675</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-2.130171634159389</v>
+        <v>-2.130171634235332</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.2960089282823</v>
+        <v>26.29600892828321</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.92702639710708</v>
+        <v>33.92702639709389</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.492383058165068</v>
+        <v>2.492383058098788</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.19599533575617</v>
+        <v>20.19599533573628</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.4380415184095</v>
+        <v>26.43804151833867</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.4098453737487</v>
+        <v>14.4098453737678</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.04360041015436</v>
+        <v>28.04360041014379</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.35126648031055</v>
+        <v>33.35126648031237</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.83431500421263</v>
+        <v>32.83431500418148</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.75684462359302</v>
+        <v>42.75684462356016</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.87252652554528</v>
+        <v>47.87252652553004</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.49467212230197</v>
+        <v>13.49467212228924</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.80334036736647</v>
+        <v>35.80334036738193</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.59660484930773</v>
+        <v>43.59660484931751</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2.43086929749736</v>
+        <v>2.43086929745018</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.86299666276718</v>
+        <v>30.8629966627698</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.49698257613081</v>
+        <v>38.49698257604441</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>7.044027456947582</v>
+        <v>7.044027456923821</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.7532531928098</v>
+        <v>24.75325319276876</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.99804709415891</v>
+        <v>30.99804709413356</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>18.96793775372603</v>
+        <v>18.96793775374706</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.60727267208656</v>
+        <v>32.60727267206575</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-9.976393334035926</v>
+        <v>-9.97639333408106</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.44912274800279</v>
+        <v>18.44912274798187</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.08038700149441</v>
+        <v>26.08038700152419</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-5.355271079519277</v>
+        <v>-5.355271079548949</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.34772058301601</v>
+        <v>12.34772058299782</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.59007950139019</v>
+        <v>18.59007950137609</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.561521636752353</v>
+        <v>6.561521636747919</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.19478695519538</v>
+        <v>20.19478695522084</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.5027292595835</v>
+        <v>25.50272925958975</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.9846379636182</v>
+        <v>24.98463796363333</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.90711057220144</v>
+        <v>34.90711057219519</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.0229816489722</v>
+        <v>40.02298164896526</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>5.645703218747506</v>
+        <v>5.64570321872818</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.95374372396773</v>
+        <v>27.95374372398933</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.74730783366592</v>
+        <v>35.74730783368275</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-5.417802161762644</v>
+        <v>-5.417802161866099</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.01366066171285</v>
+        <v>23.01366066168</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.6478933475079</v>
+        <v>30.64789334746458</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.8060767586968964</v>
+        <v>-0.8060767587400974</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.90252830448517</v>
+        <v>16.90252830446538</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.14763494019441</v>
+        <v>23.14763494020726</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.11716378328415</v>
+        <v>11.11716378321571</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.75600893380865</v>
+        <v>24.75600893382752</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.66060251370268</v>
+        <v>24.66060251365561</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.14214415330209</v>
+        <v>24.14214415325025</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.06891408847402</v>
+        <v>34.06891408849585</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.18677230247251</v>
+        <v>39.18677230247774</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.800737254106274</v>
+        <v>4.800737254059321</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.11826434234663</v>
+        <v>27.11826434232105</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.91257406320008</v>
+        <v>34.91257406322702</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-1.052777672588924</v>
+        <v>-1.052777672648155</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.38009859881029</v>
+        <v>27.38009859877754</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.01470402856139</v>
+        <v>35.01470402849591</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.564996838566593</v>
+        <v>3.564996838516571</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.27523302479519</v>
+        <v>21.27523302476609</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.52059752359755</v>
+        <v>27.52059752354594</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.49029172288797</v>
+        <v>15.49029172288058</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.13028082786402</v>
+        <v>29.13028082783219</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.4410804710184</v>
+        <v>34.44108047095781</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.92774704855699</v>
+        <v>33.9277470486352</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.8549892275138</v>
+        <v>43.85498922755303</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.97290056335239</v>
+        <v>48.97290056336717</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.58206093996173</v>
+        <v>14.58206094000607</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.90140888536248</v>
+        <v>36.901408885366</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.69681657153264</v>
+        <v>44.69681657152969</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.15391135293148</v>
+        <v>34.15391135296422</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.63643337330839</v>
+        <v>33.636433373311</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.56327157616729</v>
+        <v>43.56327157621083</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48.6810910413599</v>
+        <v>48.68109104133796</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.29401704804356</v>
+        <v>14.2940170480148</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.61261788727611</v>
+        <v>36.61261788722643</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.40680456178168</v>
+        <v>44.40680456178611</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>8.438178502179106</v>
+        <v>8.438178502162053</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.87203249720132</v>
+        <v>36.8720324971895</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.50657080086139</v>
+        <v>44.5065708008316</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.0582048912793</v>
+        <v>13.05820489127873</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.76936004468782</v>
+        <v>30.76936004474535</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.01462425325123</v>
+        <v>37.01462425324498</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.98417880443585</v>
+        <v>24.98417880442766</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.62492095281961</v>
+        <v>38.62492095281416</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.93561947679645</v>
+        <v>43.93561947681714</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.4232664755797</v>
+        <v>43.42326647560517</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.35057692805267</v>
+        <v>53.35057692807631</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58.46844949467472</v>
+        <v>58.46844949469655</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.07657091345916</v>
+        <v>24.07657091346234</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.39699260636669</v>
+        <v>46.39699260639795</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>54.19227722245559</v>
+        <v>54.19227722246617</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.91710573036007</v>
+        <v>37.91710573036655</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.39968273394393</v>
+        <v>37.39968273396587</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.32648704826001</v>
+        <v>47.32648704826547</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.44438167233616</v>
+        <v>52.44438167235037</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.05693909456183</v>
+        <v>18.05693909451443</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.37597358197879</v>
+        <v>40.37597358198402</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.17022352365691</v>
+        <v>48.17022352366953</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.20070969289556</v>
+        <v>12.20070969286407</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>40.63484414128529</v>
+        <v>40.6348441412571</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>48.26946087306171</v>
+        <v>48.26946087306296</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.82181143669984</v>
+        <v>16.82181143667051</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.53328718567743</v>
+        <v>34.53328718562627</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.77865549333458</v>
+        <v>40.77865549326295</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.74787484619289</v>
+        <v>28.74787484618562</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.38889793622277</v>
+        <v>42.38889793627006</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>47.69967684109886</v>
+        <v>47.69967684108544</v>
       </c>
     </row>
     <row r="334">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.11465538459029</v>
+        <v>57.11465538458892</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.23260309807508</v>
+        <v>62.23260309809236</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.84035591375063</v>
+        <v>27.84035591376701</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.16121124589292</v>
+        <v>50.16121124594613</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>57.95655912230952</v>
+        <v>57.95655912236591</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.06611822166624</v>
+        <v>30.06611822167556</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.5475553639749</v>
+        <v>29.54755536396058</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.47430267330756</v>
+        <v>39.47430267330403</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>44.59238647558984</v>
+        <v>44.59238647563964</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.20551996883412</v>
+        <v>10.20551996886243</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.52392663907678</v>
+        <v>32.52392663904131</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.31847619523571</v>
+        <v>40.3184761952547</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.351663217673511</v>
+        <v>4.351663217652025</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.7851331223359</v>
+        <v>32.78513312231964</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.41999666610322</v>
+        <v>40.41999666610925</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>8.971332152380249</v>
+        <v>8.971332152409808</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.68218723622103</v>
+        <v>26.6821872362415</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.92786831607534</v>
+        <v>32.92786831609398</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.89672577560909</v>
+        <v>20.8967257756474</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.53725910073072</v>
+        <v>34.53725910073708</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>39.84831426664473</v>
+        <v>39.84831426665939</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.33487636737302</v>
+        <v>39.33487636734301</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.26209592538444</v>
+        <v>49.26209592538364</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>54.3802328271528</v>
+        <v>54.38023282715826</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.98856166993291</v>
+        <v>19.988561669922</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>42.30878919128363</v>
+        <v>42.30878919126192</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.10443671170074</v>
+        <v>50.10443671164548</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-13.99461644205903</v>
+        <v>-13.99461644204653</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.43044402717103</v>
+        <v>14.43044402721343</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.06122218695739</v>
+        <v>22.06122218696637</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-9.375816001428667</v>
+        <v>-9.375816001420027</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.326726742118034</v>
+        <v>8.32672674213736</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.56853034358974</v>
+        <v>14.56853034363601</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2.541032801758114</v>
+        <v>2.541032801770164</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.17397404368912</v>
+        <v>16.17397404368753</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.48144488288826</v>
+        <v>21.48144488290679</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.96350144585349</v>
+        <v>20.96350144584962</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.88606440913568</v>
+        <v>30.88606440910657</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.00153339606654</v>
+        <v>36.00153339603971</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1.624593749498807</v>
+        <v>1.624593749476297</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.93220542208658</v>
+        <v>23.93220542212034</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.72517576583723</v>
+        <v>31.72517576587622</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-9.438083515719974</v>
+        <v>-9.438083515695759</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.99292362240444</v>
+        <v>18.99292362238534</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.62667018084883</v>
+        <v>26.6266701808312</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-4.828680081693257</v>
+        <v>-4.828680081685981</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.87947596626989</v>
+        <v>12.87947596626795</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.12402725796417</v>
+        <v>19.12402725799418</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.094616528440405</v>
+        <v>7.094616528457571</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.7331375118006</v>
+        <v>20.73313751178957</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-4.507898536790982</v>
+        <v>-4.507898536832819</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.91813954959584</v>
+        <v>23.91813954960869</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.54885058057985</v>
+        <v>31.54885058064249</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.1131532995795155</v>
+        <v>0.1131532995724669</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>17.81661491615446</v>
+        <v>17.8166149161598</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.05831822352811</v>
+        <v>24.05831822352743</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>12.03068086827889</v>
+        <v>12.03068086830424</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.66437506036063</v>
+        <v>25.66437506038599</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.97174477497665</v>
+        <v>30.97174477497585</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.45478179839724</v>
+        <v>30.45478179842009</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.37741304213093</v>
+        <v>40.37741304214548</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.49284325271937</v>
+        <v>45.49284325271767</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.11486473697325</v>
+        <v>11.11486473700611</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.42355003757157</v>
+        <v>33.42355003758339</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.21639729335768</v>
+        <v>41.21639729337394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.05144145483497908</v>
+        <v>0.05144145478688955</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.4834263003519</v>
+        <v>28.48342630037794</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.1171057755487</v>
+        <v>36.11710577554347</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.663096633946019</v>
+        <v>4.663096633962617</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.37217164104813</v>
+        <v>22.37217164104597</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.6166226784708</v>
+        <v>28.6166226784658</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16.58707219177941</v>
+        <v>16.58707219169744</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.226346204522</v>
+        <v>30.22634620454735</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-0.7471707751611589</v>
+        <v>-0.7471707751684349</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.67914774892179</v>
+        <v>27.67914774893361</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.30993720996914</v>
+        <v>35.30993720996903</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.874956218428814</v>
+        <v>3.874956218487021</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.57873841495782</v>
+        <v>21.57873841493963</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.82054581419302</v>
+        <v>27.82054581418483</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.79257322596472</v>
+        <v>15.79257322591379</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.42654834015755</v>
+        <v>29.42654834014754</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.73399843288521</v>
+        <v>34.73399843291704</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.21709054897749</v>
+        <v>34.21709054892576</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.13968793594554</v>
+        <v>44.13968793595554</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.25519328825569</v>
+        <v>49.25519328830492</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.87684614204934</v>
+        <v>14.8768461420166</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.18596507979932</v>
+        <v>37.18596507979569</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>44.9788755807622</v>
+        <v>44.97887558076015</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.813038270902915</v>
+        <v>3.813038270874607</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>32.245303562308</v>
+        <v>32.24530356230527</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.87906148483412</v>
+        <v>39.87906148484856</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.425768761435982</v>
+        <v>8.425768761460425</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.13516435780493</v>
+        <v>26.1351643578429</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.37971950819942</v>
+        <v>32.37971950822455</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.34983377964445</v>
+        <v>20.34983377963331</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.98938872218596</v>
+        <v>33.9893887222021</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-8.593218986775561</v>
+        <v>-8.593218986821036</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.83243505076612</v>
+        <v>19.83243505072803</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.46347130112681</v>
+        <v>27.46347130111385</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.972524434520189</v>
+        <v>-3.972524434477215</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.73063713994204</v>
+        <v>13.73063713992305</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.97275728059574</v>
+        <v>19.97275728057732</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.944422983431672</v>
+        <v>7.944422983454068</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.57790837309451</v>
+        <v>21.57790837308826</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.88563470501756</v>
+        <v>26.88563470502518</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.36758699975487</v>
+        <v>26.36758699975862</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.29012737614519</v>
+        <v>36.2901273761644</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>41.40582190121611</v>
+        <v>41.40582190124896</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.028050737992565</v>
+        <v>7.028050738032697</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.3365419254425</v>
+        <v>29.336541925499</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.12975205628506</v>
+        <v>37.12975205631405</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-4.035459717470737</v>
+        <v>-4.035459717485175</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.39614102595285</v>
+        <v>24.39614102597104</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.03014572584973</v>
+        <v>32.03014572579686</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.5758380132943088</v>
+        <v>0.5758380132797569</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.28461293003968</v>
+        <v>18.28461293000046</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.52948082031607</v>
+        <v>24.52948082035496</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.49923328666468</v>
+        <v>12.49923328669731</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.13829845481589</v>
+        <v>26.13829845478667</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.0427753148738</v>
+        <v>26.04277531486118</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.52436053427348</v>
+        <v>25.5243605342861</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.45119820898972</v>
+        <v>35.45119820901882</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.56887984144489</v>
+        <v>40.56887984145956</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.182352142457283</v>
+        <v>6.182352142495141</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.50032979451819</v>
+        <v>28.5003297945017</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.29428564004561</v>
+        <v>36.29428564005118</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.3296976224374006</v>
+        <v>0.3296976223969281</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.76271183967108</v>
+        <v>28.76271183960286</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.39708929301641</v>
+        <v>36.39708929298356</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.947044455019316</v>
+        <v>4.947044454977593</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.65745052940044</v>
+        <v>22.65745052935679</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.90257629145005</v>
+        <v>28.9025762914122</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.87249409293977</v>
+        <v>16.87249409288724</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.51270324052805</v>
+        <v>30.5127032405235</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.82328695625406</v>
+        <v>35.82328695625701</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.30999706872117</v>
+        <v>35.30999706868467</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.23730698579313</v>
+        <v>45.23730698576437</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.35504177059229</v>
+        <v>50.35504177059058</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.96370945401056</v>
+        <v>15.96370945399624</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.28350799510863</v>
+        <v>38.28350799509612</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.07856178626027</v>
+        <v>46.07856178626187</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.53588291929</v>
+        <v>35.53588291931171</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.01844852744332</v>
+        <v>35.01844852747515</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.94535446778925</v>
+        <v>44.94535446780528</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>50.06299735138239</v>
+        <v>50.06299735139671</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.67543070693809</v>
+        <v>15.67543070700165</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>37.99448211658287</v>
+        <v>37.99448211659651</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>45.788314912145</v>
+        <v>45.78831491220037</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>9.820452564164405</v>
+        <v>9.820452564198057</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.25444450669308</v>
+        <v>38.25444450669581</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>45.8887548296108</v>
+        <v>45.88875482958169</v>
       </c>
     </row>
     <row r="486">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.15137632388066</v>
+        <v>32.15137632389237</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.396401790974</v>
+        <v>38.39640179099242</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.36617993393988</v>
+        <v>26.36617993392976</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.00714212733308</v>
+        <v>40.00714212734842</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.3176247196724</v>
+        <v>45.31762471970276</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.80531526088148</v>
+        <v>44.80531526094446</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.73269344983637</v>
+        <v>54.7326934497918</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>59.85038946524858</v>
+        <v>59.85038946527472</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.45801819041585</v>
+        <v>25.4580181904279</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.7788904853601</v>
+        <v>47.77889048544196</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>55.57382120296759</v>
+        <v>55.57382120299805</v>
       </c>
     </row>
     <row r="498">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>38.78162643064118</v>
+        <v>38.78162643062287</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>48.70849848097739</v>
+        <v>48.70849848102559</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>53.82621652244622</v>
+        <v>53.82621652248817</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.43828130370834</v>
+        <v>19.43828130371096</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.75776635758088</v>
+        <v>41.75776635759373</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>49.55166242020791</v>
+        <v>49.55166242019074</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.58291229455906</v>
+        <v>13.58291229456906</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.01718468694391</v>
+        <v>42.017184686992</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.65157343861394</v>
+        <v>49.65157343858666</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>18.20358636911319</v>
+        <v>18.20358636910853</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.91523200486406</v>
+        <v>35.91523200485042</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.16036157193744</v>
+        <v>42.16036157192845</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.12980451367596</v>
+        <v>30.12980451368062</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>43.77104764468097</v>
+        <v>43.77104764464823</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.08161061872922</v>
+        <v>49.08161061879914</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.56935614519855</v>
+        <v>48.56935614517763</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>58.49670044508584</v>
+        <v>58.49670044505583</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>63.61447160659693</v>
+        <v>63.61447160655066</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.22173173835088</v>
+        <v>29.22173173837373</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>51.54303766871592</v>
+        <v>51.54303766873047</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>59.33803164684277</v>
+        <v>59.33803164685244</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.44819180063759</v>
+        <v>31.44819180067136</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.92967253477152</v>
+        <v>30.92967253467943</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.85648758016944</v>
+        <v>40.85648758016489</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.97439479766856</v>
+        <v>45.97439479773336</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>11.58703566041529</v>
+        <v>11.58703566040972</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.90589288621188</v>
+        <v>33.90589288619471</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.7000885653845</v>
+        <v>41.70008856538825</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.734039296458171</v>
+        <v>5.73403929645476</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.16764713912928</v>
+        <v>34.1676471391203</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>41.80228270722548</v>
+        <v>41.80228270717978</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.35328055864866</v>
+        <v>10.35328055867242</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.06430552203917</v>
+        <v>28.06430552204099</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.30974786698143</v>
+        <v>34.309747866977</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.27882892662617</v>
+        <v>22.27882892664982</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.91958228608316</v>
+        <v>35.91958228613318</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.23042152590144</v>
+        <v>41.23042152594191</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.71702717330029</v>
+        <v>40.71702717327118</v>
       </c>
     </row>
     <row r="537">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.76227481391199</v>
+        <v>55.76227481396293</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.37011098313851</v>
+        <v>21.37011098309315</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.69078909210875</v>
+        <v>43.69078909213433</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>51.48608271606795</v>
+        <v>51.48608271601531</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-10.16170353059895</v>
+        <v>-10.16170353062953</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.26678524576712</v>
+        <v>18.2667852457329</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.89850828526064</v>
+        <v>25.89850828527735</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-5.541598095780593</v>
+        <v>-5.541598095787982</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.16327354261229</v>
+        <v>12.16327354262958</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.4058701237615</v>
+        <v>18.40587012380663</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.376626347250543</v>
+        <v>6.376626347241903</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.01137887824589</v>
+        <v>20.01137887823702</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.31954467203106</v>
+        <v>25.31954467200287</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.80147730503997</v>
+        <v>24.80147730507203</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.72535381028981</v>
+        <v>34.7253538102764</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.84138843548046</v>
+        <v>39.84138843547955</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.460207016076673</v>
+        <v>5.460207016071443</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.77056682302693</v>
+        <v>27.77056682303807</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.5645239317595</v>
+        <v>35.56452393174381</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-5.602495168828092</v>
+        <v>-5.602495168843326</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.8319409222702</v>
+        <v>22.83194092229214</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.46663256850095</v>
+        <v>30.46663256850447</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.9917876307522207</v>
+        <v>-0.9917876306904887</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.71869794289525</v>
+        <v>16.71869794291253</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.96404237836591</v>
+        <v>22.96404237839797</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.93288538285824</v>
+        <v>10.93288538281561</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.57321826912769</v>
+        <v>24.57321826915042</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.6738064428459225</v>
+        <v>-0.6738064428347812</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.7556600598589</v>
+        <v>27.75566005991802</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.38731595782624</v>
+        <v>35.38731595785818</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.948550633537955</v>
+        <v>3.94855063356308</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.6543412496077</v>
+        <v>21.65434124961475</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.89683751909913</v>
+        <v>27.89683751909924</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.86745392069579</v>
+        <v>15.86745392067566</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.50295948813564</v>
+        <v>29.50295948817315</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.8110241398987</v>
+        <v>34.81102413992837</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.29393733106487</v>
+        <v>34.29393733108125</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.21788212731646</v>
+        <v>44.21788212738684</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>49.33387797098523</v>
+        <v>49.33387797102321</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.95165756586677</v>
+        <v>14.95165756586405</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.26309111788284</v>
+        <v>37.26309111784544</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>3.888209264980695</v>
+        <v>3.888209264968644</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.32362317280379</v>
+        <v>32.32362317277047</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.95824772311234</v>
+        <v>39.95824772313599</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.501168794719682</v>
+        <v>8.501168794698536</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.2125734319309</v>
+        <v>26.21257343191976</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.45781759552644</v>
+        <v>32.45781759549802</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.42652083403427</v>
+        <v>20.42652083405053</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.06760683607606</v>
+        <v>34.06760683609584</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>3.087366614817618</v>
+        <v>3.087366614785672</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.5171135865568</v>
+        <v>31.51711358659363</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>39.14884791880799</v>
+        <v>39.14884791881334</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.710798958908207</v>
+        <v>7.710798958933445</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.41691019140617</v>
+        <v>25.41691019141356</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.65951055874293</v>
+        <v>31.65951055879864</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.62979169583391</v>
+        <v>19.62979169585949</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.26557821810515</v>
+        <v>33.26557821809163</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.57372325159977</v>
+        <v>38.57372325155441</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.056691539814</v>
+        <v>38.05669153984493</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.98060247598769</v>
+        <v>47.98060247600042</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>53.09667346857068</v>
+        <v>53.09667346853612</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.71408439268966</v>
+        <v>18.71408439269364</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.02595162895854</v>
+        <v>41.02595162893615</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>48.8198488796153</v>
+        <v>48.81984887962474</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>7.650251453365421</v>
+        <v>7.650251453329609</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.08594583827007</v>
+        <v>36.0859458382695</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>43.72064884017666</v>
+        <v>43.72064884020201</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.26428640462225</v>
+        <v>12.26428640459599</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.97601166783956</v>
+        <v>29.97601166784241</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.22135995049464</v>
+        <v>36.22135995052977</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.18972791583987</v>
+        <v>24.18972791582726</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.83109488015852</v>
+        <v>37.83109488012294</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-4.759638915201414</v>
+        <v>-4.75963891520437</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.66944349822679</v>
+        <v>23.66944349822611</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.30142464835162</v>
+        <v>31.30142464832149</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.1376391720992629</v>
+        <v>-0.1376391721307542</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>17.56785137053023</v>
+        <v>17.56785137058775</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.8107645154827</v>
+        <v>23.81076451551794</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>11.78068389966258</v>
+        <v>11.78068389963052</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.41598064369375</v>
+        <v>25.41598064368079</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.72440194882372</v>
+        <v>30.72440194883213</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.2062302999399</v>
+        <v>30.20623029990931</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.13008421736756</v>
+        <v>40.13008421739428</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>45.2463444033664</v>
+        <v>45.24634440336924</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.86433137300698</v>
+        <v>10.8643313729797</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.17557079293433</v>
+        <v>33.17557079292978</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>40.9697677081381</v>
+        <v>40.96976770812037</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-0.19920409448887</v>
+        <v>-0.1992040945316162</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.23582567072938</v>
+        <v>28.23582567082669</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>35.87077547848494</v>
+        <v>35.87077547858419</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.413397936853947</v>
+        <v>4.413397936825639</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.12450245278935</v>
+        <v>22.12450245279026</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.3701635115822</v>
+        <v>28.37016351160414</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.33816962770609</v>
+        <v>16.33816962769802</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.97904676408782</v>
+        <v>29.97904676411692</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.883551144893</v>
+        <v>29.88355114487674</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.36501236867675</v>
+        <v>29.36501236868755</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.29316403071666</v>
+        <v>39.29316403075941</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.41141150366857</v>
+        <v>44.41141150366959</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.02064108892719</v>
+        <v>10.0206410889182</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.34136796741713</v>
+        <v>32.34136796741168</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.13631056672434</v>
+        <v>40.13631056672536</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>4.164391099618932</v>
+        <v>4.16439109960438</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>32.60083438331187</v>
+        <v>32.60083438330926</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.23615706497221</v>
+        <v>40.23615706498972</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.783042871128508</v>
+        <v>8.783042871157726</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.49577860739648</v>
+        <v>26.49577860741206</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.74169765003094</v>
+        <v>32.74169764999194</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.70986899012089</v>
+        <v>20.70986899016454</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.35189012701655</v>
+        <v>34.35189012706874</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.66316908366618</v>
+        <v>39.66316908368164</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.14975578407202</v>
+        <v>39.14975578406554</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.07837975856093</v>
+        <v>49.07837975854536</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>54.19668041433956</v>
+        <v>54.19668041433763</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.80110493314591</v>
+        <v>19.80110493313421</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.12365282479586</v>
+        <v>42.1236528247829</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.91969356032214</v>
+        <v>49.91969356032953</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.37783860580853</v>
+        <v>39.37783860584684</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.86028031642572</v>
+        <v>38.8602803164272</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.7885002546649</v>
+        <v>48.78850025468844</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>53.90670897333327</v>
+        <v>53.9067089733003</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.51489949698648</v>
+        <v>19.51489949702854</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.83670025008293</v>
+        <v>41.83670025012238</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.6315197810492</v>
+        <v>49.63151978106352</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>13.65632560010922</v>
+        <v>13.65632560013059</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.0937467183003</v>
+        <v>42.09374671824903</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>49.72900225678918</v>
+        <v>49.7290022567503</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.27722950093575</v>
+        <v>18.27722950090222</v>
       </c>
     </row>
     <row r="667">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.23670304120392</v>
+        <v>42.23670304120039</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.20473471429366</v>
+        <v>30.20473471437449</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.84750898307575</v>
+        <v>43.84750898313737</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.15868679867915</v>
+        <v>49.15868679873633</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.64625402614981</v>
+        <v>48.64625402613526</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.57494628291013</v>
+        <v>58.57494628288864</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>63.69320816391441</v>
+        <v>63.69320816389963</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.29659360831126</v>
+        <v>29.29659360833946</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.62021537092405</v>
+        <v>51.6202153709095</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>59.41613301443171</v>
+        <v>59.41613301443353</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.14140705062109</v>
+        <v>43.14140705058346</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.62390375397822</v>
+        <v>42.62390375403472</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.55208979875308</v>
+        <v>52.55208979876331</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>57.67037368269498</v>
+        <v>57.67037368266383</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>23.27819559150375</v>
+        <v>23.27819559150387</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.60043003589399</v>
+        <v>45.60043003586124</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>53.39531283714668</v>
+        <v>53.39531283715498</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.41923078995764</v>
+        <v>17.4192307898867</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>45.85693238945853</v>
+        <v>45.85693238941851</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.49226636068547</v>
+        <v>53.49226636069843</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.04121015983642</v>
+        <v>22.04121015982539</v>
       </c>
     </row>
     <row r="689">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.0011084345921</v>
+        <v>46.00110843457403</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.96880487487149</v>
+        <v>33.96880487492265</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.61186011415352</v>
+        <v>47.61186011417012</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.92311831515919</v>
+        <v>52.92311831519125</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52.41074053210288</v>
+        <v>52.41074053211084</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.33939889625528</v>
+        <v>62.33939889625244</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>67.4577359305745</v>
+        <v>67.45773593054744</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.06075274142247</v>
+        <v>33.06075274146681</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.38480818647999</v>
+        <v>55.38480818644714</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>63.18078909361068</v>
+        <v>63.18078909362455</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.28963520126356</v>
+        <v>35.28963520130369</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.77099192610333</v>
+        <v>34.77099192609401</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.6991209579618</v>
+        <v>44.6991209579344</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.81759403845515</v>
+        <v>49.81759403846743</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.42599209131097</v>
+        <v>15.42599209130278</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.74759864165721</v>
+        <v>37.74759864163629</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.54278109426425</v>
+        <v>45.54278109426811</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>9.569400216785219</v>
+        <v>9.569400216799544</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.00643719482721</v>
+        <v>38.00643719482448</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.64201801120796</v>
+        <v>45.64201801119022</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>14.18994661435286</v>
+        <v>14.18994661440015</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.90330131326245</v>
+        <v>31.90330131327348</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.14953696329976</v>
+        <v>38.1495369633325</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.11687147769273</v>
+        <v>26.11687147774992</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.75943689169267</v>
+        <v>39.75943689169892</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.07097139091118</v>
+        <v>45.07097139095199</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.55745361284189</v>
+        <v>44.55745361286031</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.48605496210396</v>
+        <v>54.48605496214227</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>59.60458120311457</v>
+        <v>59.60458120311366</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.2081741139182</v>
+        <v>25.20817411393627</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.53160167145543</v>
+        <v>47.53160167148362</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.32788225910465</v>
+        <v>55.32788225909544</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-9.943286233054643</v>
+        <v>-9.943286233074424</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.48309225009714</v>
+        <v>18.48309225009066</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.11474260946013</v>
+        <v>26.11474260943023</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-5.323173259045667</v>
+        <v>-5.323173259053625</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>12.38008679929342</v>
+        <v>12.38008679926806</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>18.62273316899225</v>
+        <v>18.62273316896508</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>6.594029956874031</v>
+        <v>6.594029956814005</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.22744210468502</v>
+        <v>20.22744210464511</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.53563909903507</v>
+        <v>25.53563909901757</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.01738422325436</v>
+        <v>25.01738422332826</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.94050950687474</v>
+        <v>34.94050950688315</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.05658818151644</v>
+        <v>40.05658818152735</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>5.67809682418342</v>
+        <v>5.678096824138059</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.98636644364185</v>
+        <v>27.98636644364105</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.78038280011256</v>
+        <v>35.78038280005901</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-5.384505126879255</v>
+        <v>-5.384505126910632</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.04782032275968</v>
+        <v>23.04782032272865</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.68243919191834</v>
+        <v>30.68243919189731</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-0.7737895476260306</v>
+        <v>-0.773789547690491</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.93508413044028</v>
+        <v>16.93508413043983</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.18047827121247</v>
+        <v>23.18047827119553</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.1498617460194</v>
+        <v>11.14986174604669</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.78885394105841</v>
+        <v>24.78885394104477</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-0.4557489081282498</v>
+        <v>-0.4557489080967585</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.97160724171956</v>
+        <v>27.97160724173605</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.60319047130249</v>
+        <v>35.60319047127702</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>4.166615573628427</v>
+        <v>4.166615573611146</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.87079455147207</v>
+        <v>21.87079455149026</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.11334062334642</v>
+        <v>28.11334062337666</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.08449760814462</v>
+        <v>16.0844976081436</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.71866274494757</v>
+        <v>29.71866274496735</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.02675860961997</v>
+        <v>35.02675860960189</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.50948422972717</v>
+        <v>34.50948422974081</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.43267780231215</v>
+        <v>44.43267780237047</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.54871769843137</v>
+        <v>49.54871769852436</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>15.16918741711029</v>
+        <v>15.16918741715474</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.47853071113618</v>
+        <v>37.47853071115437</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.27242397514274</v>
+        <v>45.27242397518378</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.105839369709109</v>
+        <v>4.105839369682279</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.53914257631143</v>
+        <v>32.53914257631632</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.1736943611801</v>
+        <v>40.17369436119807</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.71880680616291</v>
+        <v>8.718806806147448</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.42859948980222</v>
+        <v>26.42859948979051</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.67389337247405</v>
+        <v>32.67389337248269</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.64313710075421</v>
+        <v>20.64313710077615</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.28288236382641</v>
+        <v>34.28288236387473</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>3.305289801722118</v>
+        <v>3.305289801694947</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.73292640865818</v>
+        <v>31.73292640865625</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>39.36458806952046</v>
+        <v>39.36458806946464</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>7.928729485824555</v>
+        <v>7.928729485786128</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.63322906588783</v>
+        <v>25.63322906587668</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.87587923127196</v>
+        <v>31.87587923126195</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.84670097381265</v>
+        <v>19.8467009737599</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.48114705341654</v>
+        <v>33.48114705338653</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.78932329660531</v>
+        <v>38.78932329659917</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.27210400285994</v>
+        <v>38.27210400283982</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>48.19526371917461</v>
+        <v>48.19526371916006</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.3113787608386</v>
+        <v>53.31137876082234</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.93147982026064</v>
+        <v>18.93147982024961</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.24125677790587</v>
+        <v>41.24125677790132</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.03521328876356</v>
+        <v>49.03521328875822</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>7.86774715992842</v>
+        <v>7.867747159904773</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.30133083180331</v>
+        <v>36.30133083181604</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.93596106548025</v>
+        <v>43.93596106549821</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.48178995296384</v>
+        <v>12.48178995299295</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.19190324834621</v>
+        <v>30.19190324833701</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.43730124572507</v>
+        <v>36.43730124572848</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.40620972288277</v>
+        <v>24.40620972293814</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.04623593614033</v>
+        <v>38.04623593614658</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-4.541394495112151</v>
+        <v>-4.541394495088049</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.88557759851269</v>
+        <v>23.8855775985668</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.51748605824755</v>
+        <v>31.51748605827688</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.08061267334519329</v>
+        <v>0.08061267338555211</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.78449160737616</v>
+        <v>17.78449160736445</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.02745452703984</v>
+        <v>24.02745452705565</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>11.99791452589627</v>
+        <v>11.99791452592833</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.63187086244104</v>
+        <v>25.63187086244479</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.9403233570911</v>
+        <v>30.94032335710519</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.42196418670758</v>
+        <v>30.4219641867443</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.34506688653882</v>
+        <v>40.34506688658816</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.46137111359328</v>
+        <v>45.46137111363137</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.08204817585115</v>
+        <v>11.0820481758831</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.3911973644439</v>
+        <v>33.39119736446221</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.18545352043466</v>
+        <v>41.18545352046751</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>0.01861299966221708</v>
+        <v>0.01861299964016183</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.45153209688751</v>
+        <v>28.45153209689297</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.08640911722798</v>
+        <v>36.08640911724276</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>4.631222958365832</v>
+        <v>4.63122295837038</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.34071555018888</v>
+        <v>22.34071555022162</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.58642630042154</v>
+        <v>28.58642630044724</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.55497293749104</v>
+        <v>16.55497293750479</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.19450935809871</v>
+        <v>30.19450935807779</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.09921795389746</v>
+        <v>30.09921795386494</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.58049166636479</v>
+        <v>29.58049166634932</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>39.50789188654883</v>
+        <v>39.50789188648607</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.62618337497874</v>
+        <v>44.62618337499693</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.23810341825256</v>
+        <v>10.23810341819344</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.55673959704156</v>
+        <v>32.55673959700336</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.35174138916127</v>
+        <v>40.3517413891333</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>4.382167161417009</v>
+        <v>4.382167161389042</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.81649969476975</v>
+        <v>32.81649969479533</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.45174953523783</v>
+        <v>40.4517495352924</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.000826551692306</v>
+        <v>9.000826551666499</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.71195026161651</v>
+        <v>26.7119502616488</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.95791894534036</v>
+        <v>32.95791894536253</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.92663085309109</v>
+        <v>20.9266308531111</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.56731120446786</v>
+        <v>34.56731120443967</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.87862120773902</v>
+        <v>39.87862120771742</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>39.36502016357328</v>
+        <v>39.36502016362251</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.29289266288233</v>
+        <v>49.29289266290984</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.41123727764604</v>
+        <v>54.41123727769084</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>20.01835256700999</v>
+        <v>20.01835256696997</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.33880962911214</v>
+        <v>42.33880962908406</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.13490949638483</v>
+        <v>50.13490949638142</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.59314528306449</v>
+        <v>39.59314528310826</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.07539941977429</v>
+        <v>39.07539941975883</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.00286791427006</v>
+        <v>49.00286791427188</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>54.12112065149201</v>
+        <v>54.12112065149906</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.73200169457075</v>
+        <v>19.73200169460781</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.05171167740163</v>
+        <v>42.05171167743335</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>49.84659041526199</v>
+        <v>49.84659041526609</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>13.8737416760089</v>
+        <v>13.87374167601288</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.3090519840131</v>
+        <v>42.30905198401765</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.94423469297478</v>
+        <v>49.94423469298331</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.49465306166589</v>
+        <v>18.4946530616601</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.20669578735171</v>
+        <v>36.20669578741424</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.45256417216765</v>
+        <v>42.45256417217231</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.42113643226198</v>
+        <v>30.42113643223083</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.0625698679303</v>
+        <v>44.06256986790665</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.37377874251901</v>
+        <v>49.37377874252834</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.86115816259407</v>
+        <v>48.86115816257236</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>58.78909894238304</v>
+        <v>58.78909894240919</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>63.90740478544935</v>
+        <v>63.90740478546254</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.51348106197101</v>
+        <v>29.513481061931</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.83501192438236</v>
+        <v>51.83501192435053</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.63098871374634</v>
+        <v>59.63098871375748</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.35657925264174</v>
+        <v>43.35657925264277</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.83888837129725</v>
+        <v>42.83888837134295</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>52.76632297596486</v>
+        <v>52.76632297600488</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>57.8846508753111</v>
+        <v>57.8846508753443</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.49516331555267</v>
+        <v>23.49516331548445</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.81530696906466</v>
+        <v>45.81530696906011</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>53.61024897559835</v>
+        <v>53.61024897563632</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.63651242356709</v>
+        <v>17.63651242357437</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.0721032011842</v>
+        <v>46.07210320119807</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.70736434032644</v>
+        <v>53.70736434030825</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.25849921337717</v>
+        <v>22.2584992133608</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.97086255342904</v>
+        <v>39.97086255341539</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.21683503989507</v>
+        <v>46.21683503988029</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.1850720891787</v>
+        <v>34.18507208918427</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>47.82678648342428</v>
+        <v>47.8267864834859</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>53.13807574020418</v>
+        <v>53.13807574023249</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>52.62551013879649</v>
+        <v>52.62551013871623</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>62.55341702972921</v>
+        <v>62.55341702968988</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.67179802272111</v>
+        <v>67.67179802267768</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.27750567761475</v>
+        <v>33.27750567752607</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.59947020176983</v>
+        <v>55.59947020174197</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>63.39551025318499</v>
+        <v>63.39551025314235</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.50512892138695</v>
+        <v>35.5051289213907</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.98629812201036</v>
+        <v>34.98629812203685</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.91367571598985</v>
+        <v>44.91367571600815</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.03219280384931</v>
+        <v>50.03219280389262</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.6432813450016</v>
+        <v>15.64328134499888</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.96279715188555</v>
+        <v>37.96279715193739</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.7580387903462</v>
+        <v>45.75803879037644</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.78700324295496</v>
+        <v>9.787003242938816</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.22192944417454</v>
+        <v>38.2219294442174</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.85743740930243</v>
+        <v>45.85743740935154</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.40755714574438</v>
+        <v>14.4075571457362</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.11929978958008</v>
+        <v>32.11929978956825</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.36558506677911</v>
+        <v>38.36558506684482</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.33346019952742</v>
+        <v>26.33346019957255</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.97468480354794</v>
+        <v>39.97468480361001</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>45.28625033849644</v>
+        <v>45.28625033849405</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.7725448027352</v>
+        <v>44.7725448026762</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.70039468096777</v>
+        <v>54.70039468092786</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>59.81896487271333</v>
+        <v>59.81896487270435</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.42524858462482</v>
+        <v>25.4252485845067</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>47.74658526872567</v>
+        <v>47.74658526865303</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>55.54292498135387</v>
+        <v>55.54292498131885</v>
       </c>
     </row>
   </sheetData>
